--- a/public/preprocessing/@syukronamin.xlsx
+++ b/public/preprocessing/@syukronamin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,39 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>17644</v>
+        <v>28412</v>
       </c>
       <c r="C2" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>badhe dipun sareaken mbenjing wanci tabuh</t>
+          <t>haul bapak kami kh sholeh salah satu pendiri yayasan nurul ulum semarang hari ini adalah hari haul ke bapak</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['badhe', 'dipun', 'sareaken', 'mbenjing', 'wanci', 'tabuh']</t>
+          <t>['haul', 'bapak', 'kami', 'kh', 'sholeh', 'salah', 'satu', 'pendiri', 'yayasan', 'nurul', 'ulum', 'semarang', 'hari', 'ini', 'adalah', 'hari', 'haul', 'ke', 'bapak']</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['haul', 'bapak', 'kami', 'kh', 'saleh', 'salah', 'satu', 'pendiri', 'yayasan', 'nurul', 'ulum', 'semarang', 'hari', 'ini', 'adalah', 'hari', 'haul', 'ke', 'bapak']</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['badhe', 'dipun', 'sareaken', 'mbenjing', 'wanci', 'tabuh']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['badhe', 'pun', 'sareaken', 'mbenjing', 'wanci', 'tabuh']</t>
+          <t>['haul', 'kh', 'saleh', 'salah', 'pendiri', 'yayasan', 'nurul', 'ulum', 'semarang', 'haul']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['haul', 'kh', 'saleh', 'salah', 'diri', 'yayasan', 'nurul', 'ulum', 'semarang', 'haul']</t>
         </is>
       </c>
     </row>
@@ -511,34 +521,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17645</v>
+        <v>28413</v>
       </c>
       <c r="C3" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>nu sleman berduka innalillahi wa inna ilaihi rajiun kh samian muharrom pengasuh pp annasyth mlangi rois</t>
+          <t>pendamping di saat hujan deras</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['nu', 'sleman', 'berduka', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kh', 'samian', 'muharrom', 'pengasuh', 'pp', 'annasyth', 'mlangi', 'rois']</t>
+          <t>['pendamping', 'di', 'saat', 'hujan', 'deras']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['pendamping', 'di', 'saat', 'hujan', 'deras']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['nu', 'sleman', 'berduka', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kh', 'samian', 'muharrom', 'pengasuh', 'pp', 'annasyth', 'mlangi', 'rois']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['nu', 'sleman', 'duka', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kh', 'sami', 'muharrom', 'asuh', 'pp', 'annasyth', 'mlangi', 'rois']</t>
+          <t>['pendamping', 'hujan', 'deras']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['damping', 'hujan', 'deras']</t>
         </is>
       </c>
     </row>
@@ -547,34 +562,39 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>17646</v>
+        <v>28414</v>
       </c>
       <c r="C4" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>wah parah</t>
+          <t>pelajaran akhir pekan ini</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['wah', 'parah']</t>
+          <t>['pelajaran', 'akhir', 'pekan', 'ini']</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['pelajaran', 'akhir', 'pekan', 'ini']</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['parah']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['parah']</t>
+          <t>['pelajaran', 'pekan']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['ajar', 'pekan']</t>
         </is>
       </c>
     </row>
@@ -583,34 +603,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>17647</v>
+        <v>28415</v>
       </c>
       <c r="C5" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>qs yasin dalam ukiran kayu jati    sudah finishing mahar jt ready yg minat silakan dm</t>
+          <t>suasana usai madras rabu di rubath tarim hadhramaut yaman</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['qs', 'yasin', 'dalam', 'ukiran', 'kayu', 'jati', 'sudah', 'finishing', 'mahar', 'jt', 'ready', 'yg', 'minat', 'silakan', 'dm']</t>
+          <t>['suasana', 'usai', 'madras', 'rabu', 'di', 'rubath', 'tarim', 'hadhramaut', 'yaman']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['suasana', 'usai', 'madras', 'rabu', 'di', 'rubath', 'tarim', 'hadhramaut', 'yaman']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['qs', 'yasin', 'ukiran', 'kayu', 'jati', 'finishing', 'mahar', 'jt', 'ready', 'minat', 'silakan', 'dm']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['qs', 'yasin', 'ukir', 'kayu', 'jati', 'finishing', 'mahar', 'jt', 'ready', 'minat', 'sila', 'dm']</t>
+          <t>['suasana', 'madras', 'rabu', 'rubath', 'tarim', 'hadhramaut', 'yaman']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['suasana', 'madras', 'rabu', 'rubath', 'tarim', 'hadhramaut', 'yaman']</t>
         </is>
       </c>
     </row>
@@ -619,34 +644,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17648</v>
+        <v>28416</v>
       </c>
       <c r="C6" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>btw sempat kaget juga dapat info cak zuhairi misrawi jadi calon dubes ri di ksa tapi ala kulli hal saya ucapkan mabruuk</t>
+          <t>rt nyata ini gus sy alami sendiri apa lg hidup di perkampungan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['btw', 'sempat', 'kaget', 'juga', 'dapat', 'info', 'cak', 'zuhairi', 'misrawi', 'jadi', 'calon', 'dubes', 'ri', 'di', 'ksa', 'tapi', 'ala', 'kulli', 'hal', 'saya', 'ucapkan', 'mabruuk']</t>
+          <t>['rt', 'nyata', 'ini', 'gus', 'sy', 'alami', 'sendiri', 'apa', 'lg', 'hidup', 'di', 'perkampungan']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
+          <t>['rt', 'nyata', 'ini', 'gus', 'saya', 'alami', 'sendiri', 'apa', 'lagi', 'hidup', 'di', 'perkampungan']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['btw', 'kaget', 'info', 'cak', 'zuhairi', 'misrawi', 'calon', 'dubes', 'ri', 'ksa', 'ala', 'kulli', 'ucapkan', 'mabruuk']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['btw', 'kaget', 'info', 'cak', 'zuhairi', 'misrawi', 'calon', 'dubes', 'ri', 'ksa', 'ala', 'kulli', 'ucap', 'mabruuk']</t>
+          <t>['nyata', 'gus', 'alami', 'hidup', 'perkampungan']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['nyata', 'gus', 'alami', 'hidup', 'kampung']</t>
         </is>
       </c>
     </row>
@@ -655,34 +685,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>17649</v>
+        <v>28417</v>
       </c>
       <c r="C7" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>lagi ada penipu yg gemblung masa wa istri sy jam mlm dan bilang ada yayasan yg blm punya nmr rekening</t>
+          <t>salah satu hikmah adanya wabah</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['lagi', 'ada', 'penipu', 'yg', 'gemblung', 'masa', 'wa', 'istri', 'sy', 'jam', 'mlm', 'dan', 'bilang', 'ada', 'yayasan', 'yg', 'blm', 'punya', 'nmr', 'rekening']</t>
+          <t>['salah', 'satu', 'hikmah', 'adanya', 'wabah']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['salah', 'satu', 'hikmah', 'adanya', 'wabah']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['penipu', 'gemblung', 'wa', 'istri', 'sy', 'jam', 'mlm', 'yayasan', 'blm', 'nmr', 'rekening']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['tipu', 'gemblung', 'wa', 'istri', 'sy', 'jam', 'mlm', 'yayasan', 'blm', 'nmr', 'rekening']</t>
+          <t>['salah', 'hikmah', 'wabah']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['salah', 'hikmah', 'wabah']</t>
         </is>
       </c>
     </row>
@@ -691,34 +726,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>17650</v>
+        <v>28418</v>
       </c>
       <c r="C8" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cubi kontak mawon nmr tsb</t>
+          <t>rt notodiputro aneh kalau ada seruan benci produk luar negeri ini kekacauan berpikir harusnya pak jangan terjebak menggaung</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['cubi', 'kontak', 'mawon', 'nmr', 'tsb']</t>
+          <t>['rt', 'notodiputro', 'aneh', 'kalau', 'ada', 'seruan', 'benci', 'produk', 'luar', 'negeri', 'ini', 'kekacauan', 'berpikir', 'harusnya', 'pak', 'jangan', 'terjebak', 'menggaung']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'notodiputro', 'aneh', 'kalau', 'ada', 'seruan', 'benci', 'produk', 'luar', 'negeri', 'ini', 'kekacauan', 'berpikir', 'harusnya', 'pak', 'jangan', 'terjebak', 'menggaung']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['cubi', 'kontak', 'mawon', 'nmr', 'tsb']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['cubi', 'kontak', 'mawon', 'nmr', 'tsb']</t>
+          <t>['notodiputro', 'aneh', 'seruan', 'benci', 'produk', 'negeri', 'kekacauan', 'berpikir', 'terjebak', 'menggaung']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['notodiputro', 'aneh', 'seru', 'benci', 'produk', 'negeri', 'kacau', 'pikir', 'jebak', 'gaung']</t>
         </is>
       </c>
     </row>
@@ -727,34 +767,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>17651</v>
+        <v>28419</v>
       </c>
       <c r="C9" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>buat pengasuhpengurus pesantren di diy dimohon berhatihati ada penipu yg mengimingimingi bantuan</t>
+          <t>ini santrinya siapa ya gus</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['buat', 'pengasuhpengurus', 'pesantren', 'di', 'diy', 'dimohon', 'berhatihati', 'ada', 'penipu', 'yg', 'mengimingimingi', 'bantuan']</t>
+          <t>['ini', 'santrinya', 'siapa', 'ya', 'gus']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['ini', 'santrinya', 'siapa', 'ya', 'gus']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['pengasuhpengurus', 'pesantren', 'diy', 'dimohon', 'berhatihati', 'penipu', 'mengimingimingi', 'bantuan']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['pengasuhpengurus', 'pesantren', 'diy', 'mohon', 'berhatihati', 'tipu', 'mengimingimingi', 'bantu']</t>
+          <t>['santrinya', 'gus']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['santri', 'gus']</t>
         </is>
       </c>
     </row>
@@ -763,34 +808,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>17652</v>
+        <v>28420</v>
       </c>
       <c r="C10" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>maaf apakah di sini ada yg punya kebun sawit minta infonya dong apa betul harga sawit saat ini sedang melejit nuwun</t>
+          <t>apa menu panjenengan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['maaf', 'apakah', 'di', 'sini', 'ada', 'yg', 'punya', 'kebun', 'sawit', 'minta', 'infonya', 'dong', 'apa', 'betul', 'harga', 'sawit', 'saat', 'ini', 'sedang', 'melejit', 'nuwun']</t>
+          <t>['apa', 'menu', 'panjenengan']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['apa', 'menu', 'panjenengan']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['maaf', 'kebun', 'sawit', 'infonya', 'harga', 'sawit', 'melejit', 'nuwun']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['maaf', 'kebun', 'sawit', 'info', 'harga', 'sawit', 'lejit', 'nuwun']</t>
+          <t>['menu', 'panjenengan']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['menu', 'panjenengan']</t>
         </is>
       </c>
     </row>
@@ -799,34 +849,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>17653</v>
+        <v>28421</v>
       </c>
       <c r="C11" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>tolong beri caption yg cocok</t>
+          <t>njis leres tsani</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['tolong', 'beri', 'caption', 'yg', 'cocok']</t>
+          <t>['njis', 'leres', 'tsani']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['njis', 'leres', 'tsani']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['tolong', 'caption', 'cocok']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['tolong', 'caption', 'cocok']</t>
+          <t>['njis', 'leres', 'tsani']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['njis', 'les', 'tsani']</t>
         </is>
       </c>
     </row>
@@ -835,34 +890,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>17654</v>
+        <v>28422</v>
       </c>
       <c r="C12" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>sedang di majlis hari wafatnya almaghfurlah yai najib semoga yg membaca twit ini seraya membaca sholawat keluberan berkah</t>
+          <t xml:space="preserve">berikutnya sowan maqbaroh mbah manshur popongan mursyid naqsyabandiyahkhalidiyah guru mbah munawwir krapyak </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['sedang', 'di', 'majlis', 'hari', 'wafatnya', 'almaghfurlah', 'yai', 'najib', 'semoga', 'yg', 'membaca', 'twit', 'ini', 'seraya', 'membaca', 'sholawat', 'keluberan', 'berkah']</t>
+          <t>['berikutnya', 'sowan', 'maqbaroh', 'mbah', 'manshur', 'popongan', 'mursyid', 'naqsyabandiyahkhalidiyah', 'guru', 'mbah', 'munawwir', 'krapyak']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['berikutnya', 'sowan', 'maqbaroh', 'mbah', 'manshur', 'popongan', 'mursyid', 'naqsyabandiyahkhalidiyah', 'guru', 'mbah', 'munawwir', 'krapyak']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['majlis', 'wafatnya', 'almaghfurlah', 'yai', 'najib', 'semoga', 'membaca', 'twit', 'seraya', 'membaca', 'sholawat', 'keluberan', 'berkah']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['majlis', 'wafat', 'almaghfurlah', 'yai', 'najib', 'moga', 'baca', 'twit', 'seraya', 'baca', 'sholawat', 'luber', 'berkah']</t>
+          <t>['sowan', 'maqbaroh', 'mbah', 'manshur', 'popongan', 'mursyid', 'naqsyabandiyahkhalidiyah', 'guru', 'mbah', 'munawwir', 'krapyak']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['sowan', 'maqbaroh', 'mbah', 'manshur', 'popongan', 'mursyid', 'naqsyabandiyahkhalidiyah', 'guru', 'mbah', 'munawwir', 'krapyak']</t>
         </is>
       </c>
     </row>
@@ -871,34 +931,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>17655</v>
+        <v>28423</v>
       </c>
       <c r="C13" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>membantu tugas malaikat raqib dan atid</t>
+          <t>sesaat lagi saya bareng jamaah akan sowan ziarah kanjeng sunan pandanaran bayat yg titip tawashul doa silakan retuit</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['membantu', 'tugas', 'malaikat', 'raqib', 'dan', 'atid']</t>
+          <t>['sesaat', 'lagi', 'saya', 'bareng', 'jamaah', 'akan', 'sowan', 'ziarah', 'kanjeng', 'sunan', 'pandanaran', 'bayat', 'yg', 'titip', 'tawashul', 'doa', 'silakan', 'retuit']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['sesaat', 'lagi', 'saya', 'bareng', 'jamaah', 'akan', 'sowan', 'ziarah', 'kanjeng', 'sunan', 'pandanaran', 'bayat', 'yang', 'titip', 'tawashul', 'doa', 'silakan', 'retuit']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['membantu', 'tugas', 'malaikat', 'raqib', 'atid']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['bantu', 'tugas', 'malaikat', 'raqib', 'atid']</t>
+          <t>['bareng', 'jamaah', 'sowan', 'ziarah', 'kanjeng', 'sunan', 'pandanaran', 'bayat', 'titip', 'tawashul', 'doa', 'silakan', 'retuit']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['bareng', 'jamaah', 'sowan', 'ziarah', 'kanjeng', 'sunan', 'pandanaran', 'bayat', 'titip', 'tawashul', 'doa', 'sila', 'retuit']</t>
         </is>
       </c>
     </row>
@@ -907,34 +972,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>17656</v>
+        <v>28424</v>
       </c>
       <c r="C14" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt status facebook dari yk inilah satu dari banyak hal yang membuat nu merupakan komunitas yang menarik untuk bergaul dan</t>
+          <t>badhe dipun sareaken mbenjing wanci tabuh</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'status', 'facebook', 'dari', 'yk', 'inilah', 'satu', 'dari', 'banyak', 'hal', 'yang', 'membuat', 'nu', 'merupakan', 'komunitas', 'yang', 'menarik', 'untuk', 'bergaul', 'dan']</t>
+          <t>['badhe', 'dipun', 'sareaken', 'mbenjing', 'wanci', 'tabuh']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['badhe', 'dipun', 'sareaken', 'mbenjing', 'wanci', 'tabuh']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['status', 'facebook', 'yk', 'nu', 'komunitas', 'menarik', 'bergaul']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['status', 'facebook', 'yk', 'nu', 'komunitas', 'tarik', 'gaul']</t>
+          <t>['badhe', 'dipun', 'sareaken', 'mbenjing', 'wanci', 'tabuh']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['badhe', 'pun', 'sareaken', 'mbenjing', 'wanci', 'tabuh']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1013,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>17657</v>
+        <v>28425</v>
       </c>
       <c r="C15" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>peribahasa jawa tega laran ora tega patin ini benar adanya semoga beliau husnul khatimah</t>
+          <t>nu sleman berduka innalillahi wa inna ilaihi rajiun kh samian muharrom pengasuh pp annasyth mlangi rois</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['peribahasa', 'jawa', 'tega', 'laran', 'ora', 'tega', 'patin', 'ini', 'benar', 'adanya', 'semoga', 'beliau', 'husnul', 'khatimah']</t>
+          <t>['nu', 'sleman', 'berduka', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kh', 'samian', 'muharrom', 'pengasuh', 'pp', 'annasyth', 'mlangi', 'rois']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['nu', 'sleman', 'berduka', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kh', 'samian', 'muharrom', 'pengasuh', 'pp', 'annasyth', 'mlangi', 'rois']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['peribahasa', 'jawa', 'tega', 'laran', 'ora', 'tega', 'patin', 'semoga', 'beliau', 'husnul', 'khatimah']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['peribahasa', 'jawa', 'tega', 'laran', 'ora', 'tega', 'patin', 'moga', 'beliau', 'husnul', 'khatimah']</t>
+          <t>['nu', 'sleman', 'berduka', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kh', 'samian', 'muharrom', 'pengasuh', 'pp', 'annasyth', 'mlangi', 'rois']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['nu', 'sleman', 'duka', 'innalillahi', 'wa', 'inna', 'ilaihi', 'rajiun', 'kh', 'sami', 'muharrom', 'asuh', 'pp', 'annasyth', 'mlangi', 'rois']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1054,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>17658</v>
+        <v>28426</v>
       </c>
       <c r="C16" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>rt khoz semangatnya untuk tidak pantang menyerah sungguh luar biasa</t>
+          <t>wah parah</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'khoz', 'semangatnya', 'untuk', 'tidak', 'pantang', 'menyerah', 'sungguh', 'luar', 'biasa']</t>
+          <t>['wah', 'parah']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['wah', 'parah']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['khoz', 'semangatnya', 'pantang', 'menyerah', 'sungguh']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['khoz', 'semangat', 'pantang', 'serah', 'sungguh']</t>
+          <t>['parah']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['parah']</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1095,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>17659</v>
+        <v>28427</v>
       </c>
       <c r="C17" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>hampir tiap kali mutholaah kitab kucing kaliko ini selalu mendampingiku</t>
+          <t>qs yasin dalam ukiran kayu jati    sudah finishing mahar jt ready yg minat silakan dm</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['hampir', 'tiap', 'kali', 'mutholaah', 'kitab', 'kucing', 'kaliko', 'ini', 'selalu', 'mendampingiku']</t>
+          <t>['qs', 'yasin', 'dalam', 'ukiran', 'kayu', 'jati', 'sudah', 'finishing', 'mahar', 'jt', 'ready', 'yg', 'minat', 'silakan', 'dm']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['qs', 'yasin', 'dalam', 'ukiran', 'kayu', 'jati', 'sudah', 'finishing', 'mahar', 'juta', 'ready', 'yang', 'minat', 'silakan', 'direct, message']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['kali', 'mutholaah', 'kitab', 'kucing', 'kaliko', 'mendampingiku']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['kali', 'mutholaah', 'kitab', 'kucing', 'kaliko', 'damping']</t>
+          <t>['qs', 'yasin', 'ukiran', 'kayu', 'jati', 'finishing', 'mahar', 'juta', 'ready', 'minat', 'silakan', 'direct, message']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['qs', 'yasin', 'ukir', 'kayu', 'jati', 'finishing', 'mahar', 'juta', 'ready', 'minat', 'sila', 'direct message']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1136,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>17660</v>
+        <v>28428</v>
       </c>
       <c r="C18" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>barusan membersamai santri ziarah di luar gerbang komplek maqbaroh dongkelan tabarukan kpd mbah munawwir mbah</t>
+          <t>btw sempat kaget juga dapat info cak zuhairi misrawi jadi calon dubes ri di ksa tapi ala kulli hal saya ucapkan mabruuk</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['barusan', 'membersamai', 'santri', 'ziarah', 'di', 'luar', 'gerbang', 'komplek', 'maqbaroh', 'dongkelan', 'tabarukan', 'kpd', 'mbah', 'munawwir', 'mbah']</t>
+          <t>['btw', 'sempat', 'kaget', 'juga', 'dapat', 'info', 'cak', 'zuhairi', 'misrawi', 'jadi', 'calon', 'dubes', 'ri', 'di', 'ksa', 'tapi', 'ala', 'kulli', 'hal', 'saya', 'ucapkan', 'mabruuk']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['by, the, way', 'sempat', 'kaget', 'juga', 'dapat', 'info', 'cak', 'zuhairi', 'misrawi', 'jadi', 'calon', 'duta, besar', 'ri', 'di', 'ksa', 'tapi', 'ala', 'kulli', 'hal', 'saya', 'ucapkan', 'mabruuk']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['barusan', 'membersamai', 'santri', 'ziarah', 'gerbang', 'komplek', 'maqbaroh', 'dongkelan', 'tabarukan', 'kpd', 'mbah', 'munawwir', 'mbah']</t>
+          <t>&lt;FreqDist with 22 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['barusan', 'sama', 'santri', 'ziarah', 'gerbang', 'komplek', 'maqbaroh', 'dongkel', 'tabaruk', 'kpd', 'mbah', 'munawwir', 'mbah']</t>
+          <t>['by, the, way', 'kaget', 'info', 'cak', 'zuhairi', 'misrawi', 'calon', 'duta, besar', 'ri', 'ksa', 'ala', 'kulli', 'ucapkan', 'mabruuk']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['by the way', 'kaget', 'info', 'cak', 'zuhairi', 'misrawi', 'calon', 'duta besar', 'ri', 'ksa', 'ala', 'kulli', 'ucap', 'mabruuk']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1177,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17661</v>
+        <v>28429</v>
       </c>
       <c r="C19" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>nu jogja kembali berduka kh atabik ali ponpes krapyak telah wafat</t>
+          <t>lagi ada penipu yg gemblung masa wa istri sy jam mlm dan bilang ada yayasan yg blm punya nmr rekening</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['nu', 'jogja', 'kembali', 'berduka', 'kh', 'atabik', 'ali', 'ponpes', 'krapyak', 'telah', 'wafat']</t>
+          <t>['lagi', 'ada', 'penipu', 'yg', 'gemblung', 'masa', 'wa', 'istri', 'sy', 'jam', 'mlm', 'dan', 'bilang', 'ada', 'yayasan', 'yg', 'blm', 'punya', 'nmr', 'rekening']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['lagi', 'ada', 'penipu', 'yang', 'gemblung', 'masa', 'wa', 'istri', 'saya', 'jam', 'malam', 'dan', 'bilang', 'ada', 'yayasan', 'yang', 'belum', 'punya', 'nomor', 'rekening']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['nu', 'jogja', 'berduka', 'kh', 'atabik', 'ali', 'ponpes', 'krapyak', 'wafat']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['nu', 'jogja', 'duka', 'kh', 'atabik', 'ali', 'ponpes', 'krapyak', 'wafat']</t>
+          <t>['penipu', 'gemblung', 'wa', 'istri', 'jam', 'malam', 'yayasan', 'nomor', 'rekening']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['tipu', 'gemblung', 'wa', 'istri', 'jam', 'malam', 'yayasan', 'nomor', 'rekening']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1218,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>17662</v>
+        <v>28430</v>
       </c>
       <c r="C20" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>nomor ini mengatasnamakan dari id sudah sy tolak tp tiap sore selalu saja mengganggu sy</t>
+          <t>cubi kontak mawon nmr tsb</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['nomor', 'ini', 'mengatasnamakan', 'dari', 'id', 'sudah', 'sy', 'tolak', 'tp', 'tiap', 'sore', 'selalu', 'saja', 'mengganggu', 'sy']</t>
+          <t>['cubi', 'kontak', 'mawon', 'nmr', 'tsb']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['cubi', 'kontak', 'mawon', 'nomor', 'tersebut']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['nomor', 'mengatasnamakan', 'id', 'sy', 'tolak', 'tp', 'sore', 'mengganggu', 'sy']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['nomor', 'mengatasnamakan', 'id', 'sy', 'tolak', 'tp', 'sore', 'ganggu', 'sy']</t>
+          <t>['cubi', 'kontak', 'mawon', 'nomor']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['cubi', 'kontak', 'mawon', 'nomor']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1259,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>17663</v>
+        <v>28431</v>
       </c>
       <c r="C21" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>jumuah mubarokah dari ulama nusantara di bawah ini berapa yg panjenengan ketahui</t>
+          <t>buat pengasuhpengurus pesantren di diy dimohon berhatihati ada penipu yg mengimingimingi bantuan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['jumuah', 'mubarokah', 'dari', 'ulama', 'nusantara', 'di', 'bawah', 'ini', 'berapa', 'yg', 'panjenengan', 'ketahui']</t>
+          <t>['buat', 'pengasuhpengurus', 'pesantren', 'di', 'diy', 'dimohon', 'berhatihati', 'ada', 'penipu', 'yg', 'mengimingimingi', 'bantuan']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['buat', 'pengasuhpengurus', 'pesantren', 'di', 'diy', 'dimohon', 'berhatihati', 'ada', 'penipu', 'yang', 'mengimingimingi', 'bantuan']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['jumuah', 'mubarokah', 'ulama', 'nusantara', 'panjenengan', 'ketahui']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['jumuah', 'mubarokah', 'ulama', 'nusantara', 'panjenengan', 'tahu']</t>
+          <t>['pengasuhpengurus', 'pesantren', 'diy', 'dimohon', 'berhatihati', 'penipu', 'mengimingimingi', 'bantuan']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['pengasuhpengurus', 'pesantren', 'diy', 'mohon', 'berhatihati', 'tipu', 'mengimingimingi', 'bantu']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1300,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>17664</v>
+        <v>28432</v>
       </c>
       <c r="C22" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>monggo ingkang saget bantu</t>
+          <t>maaf apakah di sini ada yg punya kebun sawit minta infonya dong apa betul harga sawit saat ini sedang melejit nuwun</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['monggo', 'ingkang', 'saget', 'bantu']</t>
+          <t>['maaf', 'apakah', 'di', 'sini', 'ada', 'yg', 'punya', 'kebun', 'sawit', 'minta', 'infonya', 'dong', 'apa', 'betul', 'harga', 'sawit', 'saat', 'ini', 'sedang', 'melejit', 'nuwun']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['maaf', 'apakah', 'di', 'sini', 'ada', 'yang', 'punya', 'kebun', 'sawit', 'meminta', 'infonya', 'dong', 'apa', 'betul', 'harga', 'sawit', 'saat', 'ini', 'sedang', 'melejit', 'nuwun']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['monggo', 'ingkang', 'saget', 'bantu']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['monggo', 'ingkang', 'saget', 'bantu']</t>
+          <t>['maaf', 'kebun', 'sawit', 'infonya', 'harga', 'sawit', 'melejit', 'nuwun']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['maaf', 'kebun', 'sawit', 'info', 'harga', 'sawit', 'lejit', 'nuwun']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1341,39 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>17665</v>
+        <v>28433</v>
       </c>
       <c r="C23" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>dijual tanah pinggir jalan kabupaten bogor jonggol tanjung sari luas tanah  surat ajb kontur datar</t>
+          <t>tolong beri caption yg cocok</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['dijual', 'tanah', 'pinggir', 'jalan', 'kabupaten', 'bogor', 'jonggol', 'tanjung', 'sari', 'luas', 'tanah', 'surat', 'ajb', 'kontur', 'datar']</t>
+          <t>['tolong', 'beri', 'caption', 'yg', 'cocok']</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['tolong', 'beri', 'caption', 'yang', 'cocok']</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['dijual', 'tanah', 'pinggir', 'jalan', 'kabupaten', 'bogor', 'jonggol', 'tanjung', 'sari', 'luas', 'tanah', 'surat', 'ajb', 'kontur', 'datar']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['jual', 'tanah', 'pinggir', 'jalan', 'kabupaten', 'bogor', 'jonggol', 'tanjung', 'sari', 'luas', 'tanah', 'surat', 'ajb', 'kontur', 'datar']</t>
+          <t>['tolong', 'caption', 'cocok']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['tolong', 'caption', 'cocok']</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1382,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>17666</v>
+        <v>28434</v>
       </c>
       <c r="C24" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>rt solo seharusnya murid berpegangan kepada petunjuk gurunya tunduk patuh atas segala perintah larangan dan garisgarisnya</t>
+          <t>sedang di majlis hari wafatnya almaghfurlah yai najib semoga yg membaca twit ini seraya membaca sholawat keluberan berkah</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['rt', 'solo', 'seharusnya', 'murid', 'berpegangan', 'kepada', 'petunjuk', 'gurunya', 'tunduk', 'patuh', 'atas', 'segala', 'perintah', 'larangan', 'dan', 'garisgarisnya']</t>
+          <t>['sedang', 'di', 'majlis', 'hari', 'wafatnya', 'almaghfurlah', 'yai', 'najib', 'semoga', 'yg', 'membaca', 'twit', 'ini', 'seraya', 'membaca', 'sholawat', 'keluberan', 'berkah']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['sedang', 'di', 'majlis', 'hari', 'wafatnya', 'almaghfurlah', 'ya, iyalah', 'najib', 'semoga', 'yang', 'membaca', 'twit', 'ini', 'seraya', 'membaca', 'sholawat', 'keluberan', 'berkah']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['solo', 'murid', 'berpegangan', 'petunjuk', 'gurunya', 'tunduk', 'patuh', 'perintah', 'larangan', 'garisgarisnya']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['solo', 'murid', 'gang', 'tunjuk', 'guru', 'tunduk', 'patuh', 'perintah', 'larang', 'garisgarisnya']</t>
+          <t>['majlis', 'wafatnya', 'almaghfurlah', 'ya, iyalah', 'najib', 'semoga', 'membaca', 'twit', 'seraya', 'membaca', 'sholawat', 'keluberan', 'berkah']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['majlis', 'wafat', 'almaghfurlah', 'ya iya', 'najib', 'moga', 'baca', 'twit', 'seraya', 'baca', 'sholawat', 'luber', 'berkah']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1423,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>17667</v>
+        <v>28435</v>
       </c>
       <c r="C25" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>rt alhamdulillah wa syukurilah atas segala kontribusi dan dedikasi untuk negeri as selamat hari jadi nu yang ke buk</t>
+          <t>membantu tugas malaikat raqib dan atid</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['rt', 'alhamdulillah', 'wa', 'syukurilah', 'atas', 'segala', 'kontribusi', 'dan', 'dedikasi', 'untuk', 'negeri', 'as', 'selamat', 'hari', 'jadi', 'nu', 'yang', 'ke', 'buk']</t>
+          <t>['membantu', 'tugas', 'malaikat', 'raqib', 'dan', 'atid']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['membantu', 'tugas', 'malaikat', 'raqib', 'dan', 'atid']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'wa', 'syukurilah', 'kontribusi', 'dedikasi', 'negeri', 'as', 'selamat', 'nu', 'buk']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'wa', 'syukur', 'kontribusi', 'dedikasi', 'negeri', 'as', 'selamat', 'nu', 'buk']</t>
+          <t>['membantu', 'tugas', 'malaikat', 'raqib', 'atid']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['bantu', 'tugas', 'malaikat', 'raqib', 'atid']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1464,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>17668</v>
+        <v>28436</v>
       </c>
       <c r="C26" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>leres</t>
+          <t>rt status facebook dari yk inilah satu dari banyak hal yang membuat nu merupakan komunitas yang menarik untuk bergaul dan</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['leres']</t>
+          <t>['rt', 'status', 'facebook', 'dari', 'yk', 'inilah', 'satu', 'dari', 'banyak', 'hal', 'yang', 'membuat', 'nu', 'merupakan', 'komunitas', 'yang', 'menarik', 'untuk', 'bergaul', 'dan']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'status', 'facebook', 'dari', 'yk', 'inilah', 'satu', 'dari', 'banyak', 'hal', 'yang', 'membuat', 'nu', 'merupakan', 'komunitas', 'yang', 'menarik', 'untuk', 'bergaul', 'dan']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['leres']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['les']</t>
+          <t>['status', 'facebook', 'yk', 'nu', 'komunitas', 'menarik', 'bergaul']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['status', 'facebook', 'yk', 'nu', 'komunitas', 'tarik', 'gaul']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1505,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>17669</v>
+        <v>28437</v>
       </c>
       <c r="C27" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>di loket penerimaan jual sepi</t>
+          <t>peribahasa jawa tega laran ora tega patin ini benar adanya semoga beliau husnul khatimah</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['di', 'loket', 'penerimaan', 'jual', 'sepi']</t>
+          <t>['peribahasa', 'jawa', 'tega', 'laran', 'ora', 'tega', 'patin', 'ini', 'benar', 'adanya', 'semoga', 'beliau', 'husnul', 'khatimah']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['peribahasa', 'jawa', 'tega', 'laran', 'tidak', 'tega', 'patin', 'ini', 'benar', 'adanya', 'semoga', 'beliau', 'husnul', 'khatimah']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>['loket', 'penerimaan', 'jual', 'sepi']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['loket', 'terima', 'jual', 'sepi']</t>
+          <t>['peribahasa', 'jawa', 'tega', 'laran', 'tega', 'patin', 'semoga', 'beliau', 'husnul', 'khatimah']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['peribahasa', 'jawa', 'tega', 'laran', 'tega', 'patin', 'moga', 'beliau', 'husnul', 'khatimah']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1546,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>17670</v>
+        <v>28438</v>
       </c>
       <c r="C28" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>tengah pandemi tapi toko emas ramainya ngalahin warmindo</t>
+          <t>rt khoz semangatnya untuk tidak pantang menyerah sungguh luar biasa</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['tengah', 'pandemi', 'tapi', 'toko', 'emas', 'ramainya', 'ngalahin', 'warmindo']</t>
+          <t>['rt', 'khoz', 'semangatnya', 'untuk', 'tidak', 'pantang', 'menyerah', 'sungguh', 'luar', 'biasa']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['rt', 'khoz', 'semangatnya', 'untuk', 'tidak', 'pantang', 'menyerah', 'sungguh', 'luar', 'biasa']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['pandemi', 'toko', 'emas', 'ramainya', 'ngalahin', 'warmindo']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['pandemi', 'toko', 'emas', 'ramai', 'ngalahin', 'warmindo']</t>
+          <t>['khoz', 'semangatnya', 'pantang', 'menyerah', 'sungguh']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['khoz', 'semangat', 'pantang', 'serah', 'sungguh']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1587,39 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>17671</v>
+        <v>28439</v>
       </c>
       <c r="C29" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>alhamdulillah jam lebih kulakan suwuk dari gus muwafiq</t>
+          <t>hampir tiap kali mutholaah kitab kucing kaliko ini selalu mendampingiku</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'jam', 'lebih', 'kulakan', 'suwuk', 'dari', 'gus', 'muwafiq']</t>
+          <t>['hampir', 'tiap', 'kali', 'mutholaah', 'kitab', 'kucing', 'kaliko', 'ini', 'selalu', 'mendampingiku']</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['hampir', 'tiap', 'kali', 'mutholaah', 'kitab', 'kucing', 'kaliko', 'ini', 'selalu', 'mendampingiku']</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'jam', 'kulakan', 'suwuk', 'gus', 'muwafiq']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'jam', 'kulak', 'suwuk', 'gus', 'muwafiq']</t>
+          <t>['kali', 'mutholaah', 'kitab', 'kucing', 'kaliko', 'mendampingiku']</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>['kali', 'mutholaah', 'kitab', 'kucing', 'kaliko', 'damping']</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1628,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>17672</v>
+        <v>28440</v>
       </c>
       <c r="C30" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>teman insyaallah pagi ini saya bersama istri akan ndhrke umi sowan gus muwafiq monggo mungkin ada pesan yg</t>
+          <t>barusan membersamai santri ziarah di luar gerbang komplek maqbaroh dongkelan tabarukan kpd mbah munawwir mbah</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['teman', 'insyaallah', 'pagi', 'ini', 'saya', 'bersama', 'istri', 'akan', 'ndhrke', 'umi', 'sowan', 'gus', 'muwafiq', 'monggo', 'mungkin', 'ada', 'pesan', 'yg']</t>
+          <t>['barusan', 'membersamai', 'santri', 'ziarah', 'di', 'luar', 'gerbang', 'komplek', 'maqbaroh', 'dongkelan', 'tabarukan', 'kpd', 'mbah', 'munawwir', 'mbah']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['barusan', 'membersamai', 'santri', 'ziarah', 'di', 'luar', 'gerbang', 'kompleks', 'maqbaroh', 'dongkelan', 'tabarukan', 'kepada', 'mbah', 'munawwir', 'mbah']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['teman', 'insyaallah', 'pagi', 'istri', 'ndhrke', 'umi', 'sowan', 'gus', 'muwafiq', 'monggo', 'pesan']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['teman', 'insyaallah', 'pagi', 'istri', 'ndhrke', 'umi', 'sowan', 'gus', 'muwafiq', 'monggo', 'pesan']</t>
+          <t>['barusan', 'membersamai', 'santri', 'ziarah', 'gerbang', 'kompleks', 'maqbaroh', 'dongkelan', 'tabarukan', 'mbah', 'munawwir', 'mbah']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['barusan', 'sama', 'santri', 'ziarah', 'gerbang', 'kompleks', 'maqbaroh', 'dongkel', 'tabaruk', 'mbah', 'munawwir', 'mbah']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1669,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17673</v>
+        <v>28441</v>
       </c>
       <c r="C31" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>sugenk ada haditsnya malah</t>
+          <t>nu jogja kembali berduka kh atabik ali ponpes krapyak telah wafat</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['sugenk', 'ada', 'haditsnya', 'malah']</t>
+          <t>['nu', 'jogja', 'kembali', 'berduka', 'kh', 'atabik', 'ali', 'ponpes', 'krapyak', 'telah', 'wafat']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['nu', 'yoyakarta', 'kembali', 'berduka', 'kh', 'atabik', 'ali', 'pondok, pesantren', 'krapyak', 'telah', 'wafat']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['sugenk', 'haditsnya']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['sugenk', 'haditsnya']</t>
+          <t>['nu', 'yoyakarta', 'berduka', 'kh', 'atabik', 'ali', 'pondok, pesantren', 'krapyak', 'wafat']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['nu', 'yoyakarta', 'duka', 'kh', 'atabik', 'ali', 'pondok pesantren', 'krapyak', 'wafat']</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1710,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>17674</v>
+        <v>28442</v>
       </c>
       <c r="C32" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>hayo siapa yg tadi ngantuk pas waktunya khutbah jumah kalo boleh tau ngantuknya gara apa</t>
+          <t>nomor ini mengatasnamakan dari id sudah sy tolak tp tiap sore selalu saja mengganggu sy</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['hayo', 'siapa', 'yg', 'tadi', 'ngantuk', 'pas', 'waktunya', 'khutbah', 'jumah', 'kalo', 'boleh', 'tau', 'ngantuknya', 'gara', 'apa']</t>
+          <t>['nomor', 'ini', 'mengatasnamakan', 'dari', 'id', 'sudah', 'sy', 'tolak', 'tp', 'tiap', 'sore', 'selalu', 'saja', 'mengganggu', 'sy']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['nomor', 'ini', 'mengatasnamakan', 'dari', 'id', 'sudah', 'saya', 'tolak', 'tetapi', 'tiap', 'sore', 'selalu', 'saja', 'mengganggu', 'saya']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['hayo', 'ngantuk', 'pas', 'khutbah', 'jumah', 'ngantuknya', 'gara']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['hayo', 'ngantuk', 'pas', 'khutbah', 'jumah', 'ngantuknya', 'gara']</t>
+          <t>['nomor', 'mengatasnamakan', 'id', 'tolak', 'sore', 'mengganggu']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['nomor', 'mengatasnamakan', 'id', 'tolak', 'sore', 'ganggu']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1751,39 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>17675</v>
+        <v>28443</v>
       </c>
       <c r="C33" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>rt laporan perkembangan respon nu peduli gempa bumi sulbar per januari</t>
+          <t>jumuah mubarokah dari ulama nusantara di bawah ini berapa yg panjenengan ketahui</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['rt', 'laporan', 'perkembangan', 'respon', 'nu', 'peduli', 'gempa', 'bumi', 'sulbar', 'per', 'januari']</t>
+          <t>['jumuah', 'mubarokah', 'dari', 'ulama', 'nusantara', 'di', 'bawah', 'ini', 'berapa', 'yg', 'panjenengan', 'ketahui']</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['jumuah', 'mubarokah', 'dari', 'ulama', 'nusantara', 'di', 'bawah', 'ini', 'berapa', 'yang', 'panjenengan', 'ketahui']</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['laporan', 'perkembangan', 'respon', 'nu', 'peduli', 'gempa', 'bumi', 'sulbar', 'januari']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['lapor', 'kembang', 'respon', 'nu', 'peduli', 'gempa', 'bumi', 'sulbar', 'januari']</t>
+          <t>['jumuah', 'mubarokah', 'ulama', 'nusantara', 'panjenengan', 'ketahui']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['jumuah', 'mubarokah', 'ulama', 'nusantara', 'panjenengan', 'tahu']</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1792,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>17676</v>
+        <v>28444</v>
       </c>
       <c r="C34" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>alhamdulillah sudah  ziarah ke sana namun tetap merindukan kota suci tsb</t>
+          <t>monggo ingkang saget bantu</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'sudah', 'ziarah', 'ke', 'sana', 'namun', 'tetap', 'merindukan', 'kota', 'suci', 'tsb']</t>
+          <t>['monggo', 'ingkang', 'saget', 'bantu']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['monggo', 'ingkang', 'saget', 'bantu']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'ziarah', 'merindukan', 'kota', 'suci', 'tsb']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'ziarah', 'rindu', 'kota', 'suci', 'tsb']</t>
+          <t>['monggo', 'ingkang', 'saget', 'bantu']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['monggo', 'ingkang', 'saget', 'bantu']</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1833,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>17677</v>
+        <v>28445</v>
       </c>
       <c r="C35" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>rt ansor diklatsar banser pac gp ansor donorojo dan punung kabupaten pacitan jumlah peserta dalam kegiatan diklatsar ini masi</t>
+          <t>dijual tanah pinggir jalan kabupaten bogor jonggol tanjung sari luas tanah  surat ajb kontur datar</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['rt', 'ansor', 'diklatsar', 'banser', 'pac', 'gp', 'ansor', 'donorojo', 'dan', 'punung', 'kabupaten', 'pacitan', 'jumlah', 'peserta', 'dalam', 'kegiatan', 'diklatsar', 'ini', 'masi']</t>
+          <t>['dijual', 'tanah', 'pinggir', 'jalan', 'kabupaten', 'bogor', 'jonggol', 'tanjung', 'sari', 'luas', 'tanah', 'surat', 'ajb', 'kontur', 'datar']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['dijual', 'tanah', 'pinggir', 'jalan', 'kabupaten', 'bogor', 'jonggol', 'tanjung', 'sari', 'luas', 'tanah', 'surat', 'ajb', 'kontur', 'datar']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['ansor', 'diklatsar', 'banser', 'pac', 'gp', 'ansor', 'donorojo', 'punung', 'kabupaten', 'pacitan', 'peserta', 'kegiatan', 'diklatsar', 'masi']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['ansor', 'diklatsar', 'banser', 'pac', 'gp', 'ansor', 'donorojo', 'punung', 'kabupaten', 'pacitan', 'serta', 'giat', 'diklatsar', 'mas']</t>
+          <t>['dijual', 'tanah', 'pinggir', 'jalan', 'kabupaten', 'bogor', 'jonggol', 'tanjung', 'sari', 'luas', 'tanah', 'surat', 'ajb', 'kontur', 'datar']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['jual', 'tanah', 'pinggir', 'jalan', 'kabupaten', 'bogor', 'jonggol', 'tanjung', 'sari', 'luas', 'tanah', 'surat', 'ajb', 'kontur', 'datar']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1874,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>17678</v>
+        <v>28446</v>
       </c>
       <c r="C36" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>sesaat lg akan menemani ibu dan santri putri melaksanakan rutinitas ziarah ahad pagi ziarah sbg bagian dari ik</t>
+          <t>rt solo seharusnya murid berpegangan kepada petunjuk gurunya tunduk patuh atas segala perintah larangan dan garisgarisnya</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['sesaat', 'lg', 'akan', 'menemani', 'ibu', 'dan', 'santri', 'putri', 'melaksanakan', 'rutinitas', 'ziarah', 'ahad', 'pagi', 'ziarah', 'sbg', 'bagian', 'dari', 'ik']</t>
+          <t>['rt', 'solo', 'seharusnya', 'murid', 'berpegangan', 'kepada', 'petunjuk', 'gurunya', 'tunduk', 'patuh', 'atas', 'segala', 'perintah', 'larangan', 'dan', 'garisgarisnya']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'solo', 'seharusnya', 'murid', 'berpegangan', 'kepada', 'petunjuk', 'gurunya', 'tunduk', 'patuh', 'atas', 'segala', 'perintah', 'larangan', 'dan', 'garisgarisnya']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['lg', 'menemani', 'santri', 'putri', 'melaksanakan', 'rutinitas', 'ziarah', 'ahad', 'pagi', 'ziarah', 'sbg', 'ik']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['lg', 'tani', 'santri', 'putri', 'laksana', 'rutinitas', 'ziarah', 'ahad', 'pagi', 'ziarah', 'sbg', 'ik']</t>
+          <t>['solo', 'murid', 'berpegangan', 'petunjuk', 'gurunya', 'tunduk', 'patuh', 'perintah', 'larangan', 'garisgarisnya']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['solo', 'murid', 'gang', 'tunjuk', 'guru', 'tunduk', 'patuh', 'perintah', 'larang', 'garisgarisnya']</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1915,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>17679</v>
+        <v>28447</v>
       </c>
       <c r="C37" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>cc</t>
+          <t>rt alhamdulillah wa syukurilah atas segala kontribusi dan dedikasi untuk negeri as selamat hari jadi nu yang ke buk</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['cc']</t>
+          <t>['rt', 'alhamdulillah', 'wa', 'syukurilah', 'atas', 'segala', 'kontribusi', 'dan', 'dedikasi', 'untuk', 'negeri', 'as', 'selamat', 'hari', 'jadi', 'nu', 'yang', 'ke', 'buk']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['rt', 'alhamdulillah', 'wa', 'syukurilah', 'atas', 'segala', 'kontribusi', 'dan', 'dedikasi', 'untuk', 'negeri', 'as', 'selamat', 'hari', 'jadi', 'nu', 'yang', 'ke', 'buk']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['cc']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['cc']</t>
+          <t>['alhamdulillah', 'wa', 'syukurilah', 'kontribusi', 'dedikasi', 'negeri', 'as', 'selamat', 'nu', 'buk']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'wa', 'syukur', 'kontribusi', 'dedikasi', 'negeri', 'as', 'selamat', 'nu', 'buk']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1956,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>17680</v>
+        <v>28448</v>
       </c>
       <c r="C38" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>padahal sy bukan eks efpei loh kok ada yg dm seperti ini ya</t>
+          <t>leres</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['padahal', 'sy', 'bukan', 'eks', 'efpei', 'loh', 'kok', 'ada', 'yg', 'dm', 'seperti', 'ini', 'ya']</t>
+          <t>['leres']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['leres']</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['sy', 'eks', 'efpei', 'dm']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['sy', 'eks', 'efpei', 'dm']</t>
+          <t>['leres']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['les']</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1997,39 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>17681</v>
+        <v>28449</v>
       </c>
       <c r="C39" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>rt muslim jkt itu mmg kental politiknya dari dulu jadi kalo byk yg suka mrs ya karena dia selalu bahas politik justru kiai yg</t>
+          <t>di loket penerimaan jual sepi</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['rt', 'muslim', 'jkt', 'itu', 'mmg', 'kental', 'politiknya', 'dari', 'dulu', 'jadi', 'kalo', 'byk', 'yg', 'suka', 'mrs', 'ya', 'karena', 'dia', 'selalu', 'bahas', 'politik', 'justru', 'kiai', 'yg']</t>
+          <t>['di', 'loket', 'penerimaan', 'jual', 'sepi']</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 23 samples and 24 outcomes&gt;</t>
+          <t>['di', 'loket', 'penerimaan', 'jual', 'sepi']</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['muslim', 'jkt', 'mmg', 'kental', 'politiknya', 'byk', 'suka', 'mrs', 'bahas', 'politik', 'kiai']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['muslim', 'jkt', 'mmg', 'kental', 'politik', 'byk', 'suka', 'mrs', 'bahas', 'politik', 'kiai']</t>
+          <t>['loket', 'penerimaan', 'jual', 'sepi']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['loket', 'terima', 'jual', 'sepi']</t>
         </is>
       </c>
     </row>
@@ -1843,34 +2038,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>17682</v>
+        <v>28450</v>
       </c>
       <c r="C40" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>rt amat disayangkan panji membikin penilaian gegabah seperti ini berdasarkan opininya pak thamrin amal tomagola jika benar apa</t>
+          <t>tengah pandemi tapi toko emas ramainya ngalahin warmindo</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['rt', 'amat', 'disayangkan', 'panji', 'membikin', 'penilaian', 'gegabah', 'seperti', 'ini', 'berdasarkan', 'opininya', 'pak', 'thamrin', 'amal', 'tomagola', 'jika', 'benar', 'apa']</t>
+          <t>['tengah', 'pandemi', 'tapi', 'toko', 'emas', 'ramainya', 'ngalahin', 'warmindo']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['tengah', 'pandemi', 'tapi', 'toko', 'emas', 'ramainya', 'mengalahkan', 'warmindo']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['disayangkan', 'panji', 'membikin', 'penilaian', 'gegabah', 'berdasarkan', 'opininya', 'thamrin', 'amal', 'tomagola']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['sayang', 'panji', 'bikin', 'nilai', 'gegabah', 'dasar', 'opini', 'thamrin', 'amal', 'tomagola']</t>
+          <t>['pandemi', 'toko', 'emas', 'ramainya', 'mengalahkan', 'warmindo']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['pandemi', 'toko', 'emas', 'ramai', 'kalah', 'warmindo']</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2079,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>17683</v>
+        <v>28451</v>
       </c>
       <c r="C41" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>sy dpt cerita dr seorg bunyai yg kontak salah satu rs di bantul ada santri yg mau opnam sbb diare berat hasil gen</t>
+          <t>alhamdulillah jam lebih kulakan suwuk dari gus muwafiq</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['sy', 'dpt', 'cerita', 'dr', 'seorg', 'bunyai', 'yg', 'kontak', 'salah', 'satu', 'rs', 'di', 'bantul', 'ada', 'santri', 'yg', 'mau', 'opnam', 'sbb', 'diare', 'berat', 'hasil', 'gen']</t>
+          <t>['alhamdulillah', 'jam', 'lebih', 'kulakan', 'suwuk', 'dari', 'gus', 'muwafiq']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
+          <t>['alhamdulillah', 'jam', 'lebih', 'kulakan', 'suwuk', 'dari', 'gus', 'muwafiq']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['sy', 'dpt', 'cerita', 'dr', 'seorg', 'bunyai', 'kontak', 'salah', 'rs', 'bantul', 'santri', 'opnam', 'sbb', 'diare', 'berat', 'hasil', 'gen']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['sy', 'dpt', 'cerita', 'dr', 'seorg', 'bunyai', 'kontak', 'salah', 'rs', 'bantul', 'santri', 'opnam', 'sbb', 'diare', 'berat', 'hasil', 'gen']</t>
+          <t>['alhamdulillah', 'jam', 'kulakan', 'suwuk', 'gus', 'muwafiq']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'jam', 'kulak', 'suwuk', 'gus', 'muwafiq']</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2120,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>17684</v>
+        <v>28452</v>
       </c>
       <c r="C42" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">semalam sy ditelpon kawan sy staf kedutaan pea mrk msh membuka lowongan ini yg memenuhi kualifikasi silakan dm </t>
+          <t>teman insyaallah pagi ini saya bersama istri akan ndhrke umi sowan gus muwafiq monggo mungkin ada pesan yg</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['semalam', 'sy', 'ditelpon', 'kawan', 'sy', 'staf', 'kedutaan', 'pea', 'mrk', 'msh', 'membuka', 'lowongan', 'ini', 'yg', 'memenuhi', 'kualifikasi', 'silakan', 'dm']</t>
+          <t>['teman', 'insyaallah', 'pagi', 'ini', 'saya', 'bersama', 'istri', 'akan', 'ndhrke', 'umi', 'sowan', 'gus', 'muwafiq', 'monggo', 'mungkin', 'ada', 'pesan', 'yg']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['teman', 'insyaallah', 'pagi', 'ini', 'saya', 'bersama', 'istri', 'akan', 'ndhrke', 'umi', 'sowan', 'gus', 'muwafiq', 'monggo', 'mungkin', 'ada', 'pesan', 'yang']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['semalam', 'sy', 'ditelpon', 'kawan', 'sy', 'staf', 'kedutaan', 'pea', 'mrk', 'msh', 'membuka', 'lowongan', 'memenuhi', 'kualifikasi', 'silakan', 'dm']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['malam', 'sy', 'telpon', 'kawan', 'sy', 'staf', 'duta', 'pea', 'mrk', 'msh', 'buka', 'lowong', 'penuh', 'kualifikasi', 'sila', 'dm']</t>
+          <t>['teman', 'insyaallah', 'pagi', 'istri', 'ndhrke', 'umi', 'sowan', 'gus', 'muwafiq', 'monggo', 'pesan']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['teman', 'insyaallah', 'pagi', 'istri', 'ndhrke', 'umi', 'sowan', 'gus', 'muwafiq', 'monggo', 'pesan']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2161,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>17685</v>
+        <v>28453</v>
       </c>
       <c r="C43" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>kemarin lusa sy sempat mau ngajak istri ke resto ikan bakar tp batal eh tadi siang kok ada yg kirim ikan bakar vi</t>
+          <t>sugenk ada haditsnya malah</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['kemarin', 'lusa', 'sy', 'sempat', 'mau', 'ngajak', 'istri', 'ke', 'resto', 'ikan', 'bakar', 'tp', 'batal', 'eh', 'tadi', 'siang', 'kok', 'ada', 'yg', 'kirim', 'ikan', 'bakar', 'vi']</t>
+          <t>['sugenk', 'ada', 'haditsnya', 'malah']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
+          <t>['sugenk', 'ada', 'hadisnya', 'malah']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['kemarin', 'lusa', 'sy', 'ngajak', 'istri', 'resto', 'ikan', 'bakar', 'tp', 'batal', 'eh', 'siang', 'kirim', 'ikan', 'bakar', 'vi']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['kemarin', 'lusa', 'sy', 'ngajak', 'istri', 'resto', 'ikan', 'bakar', 'tp', 'batal', 'eh', 'siang', 'kirim', 'ikan', 'bakar', 'vi']</t>
+          <t>['sugenk', 'hadisnya']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['sugenk', 'hadis']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2202,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>17686</v>
+        <v>28454</v>
       </c>
       <c r="C44" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>rt af ulama ada dua tipe yg rendah hati dan yg pede banget di antara yg pede banget adlh assuyuthi  menulis autobiograf</t>
+          <t>hayo siapa yg tadi ngantuk pas waktunya khutbah jumah kalo boleh tau ngantuknya gara apa</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['rt', 'af', 'ulama', 'ada', 'dua', 'tipe', 'yg', 'rendah', 'hati', 'dan', 'yg', 'pede', 'banget', 'di', 'antara', 'yg', 'pede', 'banget', 'adlh', 'assuyuthi', 'menulis', 'autobiograf']</t>
+          <t>['hayo', 'siapa', 'yg', 'tadi', 'ngantuk', 'pas', 'waktunya', 'khutbah', 'jumah', 'kalo', 'boleh', 'tau', 'ngantuknya', 'gara', 'apa']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
+          <t>['hayo', 'siapa', 'yang', 'tadi', 'mengantuk', 'pas', 'waktunya', 'khotbah', 'jumah', 'kalau', 'boleh', 'tau', 'ngantuknya', 'gara', 'apa']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['af', 'ulama', 'tipe', 'rendah', 'hati', 'pede', 'banget', 'pede', 'banget', 'adlh', 'assuyuthi', 'menulis', 'autobiograf']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['af', 'ulama', 'tipe', 'rendah', 'hati', 'pede', 'banget', 'pede', 'banget', 'adlh', 'assuyuthi', 'tulis', 'autobiograf']</t>
+          <t>['hayo', 'mengantuk', 'pas', 'khotbah', 'jumah', 'ngantuknya', 'gara']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['hayo', 'antuk', 'pas', 'khotbah', 'jumah', 'ngantuknya', 'gara']</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2243,39 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>17687</v>
+        <v>28455</v>
       </c>
       <c r="C45" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">kalo ada yg nulis semoga ada yg bisa menggantikan tugas fp di seluruh lokasi bencana krn mrk sdh dilarang dan </t>
+          <t>rt laporan perkembangan respon nu peduli gempa bumi sulbar per januari</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['kalo', 'ada', 'yg', 'nulis', 'semoga', 'ada', 'yg', 'bisa', 'menggantikan', 'tugas', 'fp', 'di', 'seluruh', 'lokasi', 'bencana', 'krn', 'mrk', 'sdh', 'dilarang', 'dan']</t>
+          <t>['rt', 'laporan', 'perkembangan', 'respon', 'nu', 'peduli', 'gempa', 'bumi', 'sulbar', 'per', 'januari']</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'laporan', 'perkembangan', 'respon', 'nu', 'peduli', 'gempa', 'bumi', 'sulbar', 'per', 'januari']</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['nulis', 'semoga', 'menggantikan', 'tugas', 'fp', 'lokasi', 'bencana', 'mrk', 'dilarang']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['nulis', 'moga', 'ganti', 'tugas', 'fp', 'lokasi', 'bencana', 'mrk', 'larang']</t>
+          <t>['laporan', 'perkembangan', 'respon', 'nu', 'peduli', 'gempa', 'bumi', 'sulbar', 'januari']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['lapor', 'kembang', 'respon', 'nu', 'peduli', 'gempa', 'bumi', 'sulbar', 'januari']</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2284,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>17688</v>
+        <v>28456</v>
       </c>
       <c r="C46" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>ternyata lagi ada yg merasa sbg jubir tuhan beberapa musibah yg terjadi akhir ini menurutnya akibat dari fp yg dibubarkan</t>
+          <t>alhamdulillah sudah  ziarah ke sana namun tetap merindukan kota suci tsb</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['ternyata', 'lagi', 'ada', 'yg', 'merasa', 'sbg', 'jubir', 'tuhan', 'beberapa', 'musibah', 'yg', 'terjadi', 'akhir', 'ini', 'menurutnya', 'akibat', 'dari', 'fp', 'yg', 'dibubarkan']</t>
+          <t>['alhamdulillah', 'sudah', 'ziarah', 'ke', 'sana', 'namun', 'tetap', 'merindukan', 'kota', 'suci', 'tsb']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['alhamdulillah', 'sudah', 'ziarah', 'ke', 'sana', 'namun', 'tetap', 'merindukan', 'kota', 'suci', 'tersebut']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['sbg', 'jubir', 'tuhan', 'musibah', 'menurutnya', 'akibat', 'fp', 'dibubarkan']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['sbg', 'jubir', 'tuhan', 'musibah', 'turut', 'akibat', 'fp', 'bubar']</t>
+          <t>['alhamdulillah', 'ziarah', 'merindukan', 'kota', 'suci']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['alhamdulillah', 'ziarah', 'rindu', 'kota', 'suci']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2325,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>17689</v>
+        <v>28457</v>
       </c>
       <c r="C47" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>rt banser kalimantan selatan ini ngapain assessment kebencanaan dan evakuasi sambil bagi sembako bukannya sibuk jaga gereja da</t>
+          <t>rt ansor diklatsar banser pac gp ansor donorojo dan punung kabupaten pacitan jumlah peserta dalam kegiatan diklatsar ini masi</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['rt', 'banser', 'kalimantan', 'selatan', 'ini', 'ngapain', 'assessment', 'kebencanaan', 'dan', 'evakuasi', 'sambil', 'bagi', 'sembako', 'bukannya', 'sibuk', 'jaga', 'gereja', 'da']</t>
+          <t>['rt', 'ansor', 'diklatsar', 'banser', 'pac', 'gp', 'ansor', 'donorojo', 'dan', 'punung', 'kabupaten', 'pacitan', 'jumlah', 'peserta', 'dalam', 'kegiatan', 'diklatsar', 'ini', 'masi']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['rt', 'ansor', 'diklatsar', 'barisan, serba, guna', 'pac', 'gp', 'ansor', 'donorojo', 'dan', 'punung', 'kabupaten', 'pacitan', 'jumlah', 'peserta', 'dalam', 'kegiatan', 'diklatsar', 'ini', 'masih']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['banser', 'kalimantan', 'selatan', 'ngapain', 'assessment', 'kebencanaan', 'evakuasi', 'sembako', 'sibuk', 'jaga', 'gereja', 'da']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['banser', 'kalimantan', 'selatan', 'ngapain', 'assessment', 'bencana', 'evakuasi', 'sembako', 'sibuk', 'jaga', 'gereja', 'da']</t>
+          <t>['ansor', 'diklatsar', 'barisan, serba, guna', 'pac', 'gp', 'ansor', 'donorojo', 'punung', 'kabupaten', 'pacitan', 'peserta', 'kegiatan', 'diklatsar']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['ansor', 'diklatsar', 'baris serba guna', 'pac', 'gp', 'ansor', 'donorojo', 'punung', 'kabupaten', 'pacitan', 'serta', 'giat', 'diklatsar']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2366,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>17690</v>
+        <v>28458</v>
       </c>
       <c r="C48" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">disadari atau tdk di awal tahun kita diberi musibah di berbagai lini al dakwah hafidzul quran mbah </t>
+          <t>sesaat lg akan menemani ibu dan santri putri melaksanakan rutinitas ziarah ahad pagi ziarah sbg bagian dari ik</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['disadari', 'atau', 'tdk', 'di', 'awal', 'tahun', 'kita', 'diberi', 'musibah', 'di', 'berbagai', 'lini', 'al', 'dakwah', 'hafidzul', 'quran', 'mbah']</t>
+          <t>['sesaat', 'lg', 'akan', 'menemani', 'ibu', 'dan', 'santri', 'putri', 'melaksanakan', 'rutinitas', 'ziarah', 'ahad', 'pagi', 'ziarah', 'sbg', 'bagian', 'dari', 'ik']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['sesaat', 'lagi', 'akan', 'menemani', 'ibu', 'dan', 'santri', 'putri', 'melaksanakan', 'rutinitas', 'ziarah', 'ahad', 'pagi', 'ziarah', 'sebagai', 'bagian', 'dari', 'ik']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['disadari', 'musibah', 'lini', 'al', 'dakwah', 'hafidzul', 'quran', 'mbah']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['sadar', 'musibah', 'lini', 'al', 'dakwah', 'hafidzul', 'quran', 'mbah']</t>
+          <t>['menemani', 'santri', 'putri', 'melaksanakan', 'rutinitas', 'ziarah', 'ahad', 'pagi', 'ziarah', 'ik']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['tani', 'santri', 'putri', 'laksana', 'rutinitas', 'ziarah', 'ahad', 'pagi', 'ziarah', 'ik']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2407,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>17691</v>
+        <v>28459</v>
       </c>
       <c r="C49" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>rt elqattamy evakuasi tuan guru bakhiet ulama besar barabai kalsel semoga beliau sehat dan selalu dalam lindungan allah</t>
+          <t>cc</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['rt', 'elqattamy', 'evakuasi', 'tuan', 'guru', 'bakhiet', 'ulama', 'besar', 'barabai', 'kalsel', 'semoga', 'beliau', 'sehat', 'dan', 'selalu', 'dalam', 'lindungan', 'allah']</t>
+          <t>['cc']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['cc']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['elqattamy', 'evakuasi', 'tuan', 'guru', 'bakhiet', 'ulama', 'barabai', 'kalsel', 'semoga', 'beliau', 'sehat', 'lindungan', 'allah']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['elqattamy', 'evakuasi', 'tuan', 'guru', 'bakhiet', 'ulama', 'barabai', 'kalsel', 'moga', 'beliau', 'sehat', 'lindung', 'allah']</t>
+          <t>['cc']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['cc']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2448,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>17692</v>
+        <v>28460</v>
       </c>
       <c r="C50" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>khususon ila hadlroti syaikh ali jaber alfatihaah</t>
+          <t>padahal sy bukan eks efpei loh kok ada yg dm seperti ini ya</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['khususon', 'ila', 'hadlroti', 'syaikh', 'ali', 'jaber', 'alfatihaah']</t>
+          <t>['padahal', 'sy', 'bukan', 'eks', 'efpei', 'loh', 'kok', 'ada', 'yg', 'dm', 'seperti', 'ini', 'ya']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['padahal', 'saya', 'bukan', 'eks', 'efpei', 'lah', 'kok', 'ada', 'yang', 'direct, message', 'seperti', 'ini', 'ya']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['khususon', 'ila', 'hadlroti', 'syaikh', 'ali', 'jaber', 'alfatihaah']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['khususon', 'ila', 'hadlroti', 'syaikh', 'ali', 'jaber', 'alfatihaah']</t>
+          <t>['eks', 'efpei', 'direct, message']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['eks', 'efpei', 'direct message']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2489,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>17693</v>
+        <v>28461</v>
       </c>
       <c r="C51" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>rt jafar jangan lupa salat ghaib utk syekh ali jaber juga baca salawat diniatkan hadiah utk beliau krn besarnya cinta beliau pd na</t>
+          <t>rt muslim jkt itu mmg kental politiknya dari dulu jadi kalo byk yg suka mrs ya karena dia selalu bahas politik justru kiai yg</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['rt', 'jafar', 'jangan', 'lupa', 'salat', 'ghaib', 'utk', 'syekh', 'ali', 'jaber', 'juga', 'baca', 'salawat', 'diniatkan', 'hadiah', 'utk', 'beliau', 'krn', 'besarnya', 'cinta', 'beliau', 'pd', 'na']</t>
+          <t>['rt', 'muslim', 'jkt', 'itu', 'mmg', 'kental', 'politiknya', 'dari', 'dulu', 'jadi', 'kalo', 'byk', 'yg', 'suka', 'mrs', 'ya', 'karena', 'dia', 'selalu', 'bahas', 'politik', 'justru', 'kiai', 'yg']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
+          <t>['rt', 'muslim', 'jakarta', 'itu', 'memang', 'kental', 'politiknya', 'dari', 'dulu', 'jadi', 'kalau', 'banyak', 'yang', 'suka', 'mrs', 'ya', 'karena', 'dia', 'selalu', 'bahas', 'politik', 'justru', 'kiai', 'yang']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['jafar', 'lupa', 'salat', 'ghaib', 'syekh', 'ali', 'jaber', 'baca', 'salawat', 'diniatkan', 'hadiah', 'beliau', 'besarnya', 'cinta', 'beliau', 'pd', 'na']</t>
+          <t>&lt;FreqDist with 23 samples and 24 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['jafar', 'lupa', 'salat', 'ghaib', 'syekh', 'ali', 'jaber', 'baca', 'salawat', 'niat', 'hadiah', 'beliau', 'besar', 'cinta', 'beliau', 'pd', 'na']</t>
+          <t>['muslim', 'jakarta', 'kental', 'politiknya', 'suka', 'mrs', 'bahas', 'politik', 'kiai']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['muslim', 'jakarta', 'kental', 'politik', 'suka', 'mrs', 'bahas', 'politik', 'kiai']</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2530,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>17694</v>
+        <v>28462</v>
       </c>
       <c r="C52" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>hari ini semua status wa isinya sama itu bukti bahwa kebaikan sang penjaga quran dari madinah tsb disaksikan oleh jutaan orang</t>
+          <t>rt amat disayangkan panji membikin penilaian gegabah seperti ini berdasarkan opininya pak thamrin amal tomagola jika benar apa</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['hari', 'ini', 'semua', 'status', 'wa', 'isinya', 'sama', 'itu', 'bukti', 'bahwa', 'kebaikan', 'sang', 'penjaga', 'quran', 'dari', 'madinah', 'tsb', 'disaksikan', 'oleh', 'jutaan', 'orang']</t>
+          <t>['rt', 'amat', 'disayangkan', 'panji', 'membikin', 'penilaian', 'gegabah', 'seperti', 'ini', 'berdasarkan', 'opininya', 'pak', 'thamrin', 'amal', 'tomagola', 'jika', 'benar', 'apa']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
+          <t>['rt', 'amat', 'disayangkan', 'panji', 'membuat', 'penilaian', 'gegabah', 'seperti', 'ini', 'berdasarkan', 'opininya', 'pak', 'thamrin', 'amal', 'tomagola', 'jika', 'benar', 'apa']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['status', 'wa', 'isinya', 'bukti', 'kebaikan', 'sang', 'penjaga', 'quran', 'madinah', 'tsb', 'disaksikan', 'jutaan', 'orang']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['status', 'wa', 'isi', 'bukti', 'baik', 'sang', 'jaga', 'quran', 'madinah', 'tsb', 'saksi', 'juta', 'orang']</t>
+          <t>['disayangkan', 'panji', 'penilaian', 'gegabah', 'berdasarkan', 'opininya', 'thamrin', 'amal', 'tomagola']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['sayang', 'panji', 'nilai', 'gegabah', 'dasar', 'opini', 'thamrin', 'amal', 'tomagola']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2571,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>17695</v>
+        <v>28463</v>
       </c>
       <c r="C53" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>rt terbatabata aa meminta maaf krn menusuk syekh ali jaber tersenyum dgn air muka yg teduh syekh ali jaber menjawab di</t>
+          <t>sy dpt cerita dr seorg bunyai yg kontak salah satu rs di bantul ada santri yg mau opnam sbb diare berat hasil gen</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['rt', 'terbatabata', 'aa', 'meminta', 'maaf', 'krn', 'menusuk', 'syekh', 'ali', 'jaber', 'tersenyum', 'dgn', 'air', 'muka', 'yg', 'teduh', 'syekh', 'ali', 'jaber', 'menjawab', 'di']</t>
+          <t>['sy', 'dpt', 'cerita', 'dr', 'seorg', 'bunyai', 'yg', 'kontak', 'salah', 'satu', 'rs', 'di', 'bantul', 'ada', 'santri', 'yg', 'mau', 'opnam', 'sbb', 'diare', 'berat', 'hasil', 'gen']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>['saya', 'dapat', 'cerita', 'dari', 'seorang', 'bunyai', 'yang', 'kontak', 'salah', 'satu', 'rumah, sakit', 'di', 'bantul', 'ada', 'santri', 'yang', 'mau', 'opnam', 'sebab', 'diare', 'berat', 'hasil', 'gen']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['terbatabata', 'aa', 'maaf', 'menusuk', 'syekh', 'ali', 'jaber', 'tersenyum', 'air', 'muka', 'teduh', 'syekh', 'ali', 'jaber']</t>
+          <t>&lt;FreqDist with 22 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['terbatabata', 'aa', 'maaf', 'tusuk', 'syekh', 'ali', 'jaber', 'senyum', 'air', 'muka', 'teduh', 'syekh', 'ali', 'jaber']</t>
+          <t>['cerita', 'bunyai', 'kontak', 'salah', 'rumah, sakit', 'bantul', 'santri', 'opnam', 'diare', 'berat', 'hasil', 'gen']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['cerita', 'bunyai', 'kontak', 'salah', 'rumah sakit', 'bantul', 'santri', 'opnam', 'diare', 'berat', 'hasil', 'gen']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2612,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>17696</v>
+        <v>28464</v>
       </c>
       <c r="C54" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>rt ditusuk tubuhnya dipeluk pelakunya siapa sangka manusia seperti itu benarbenar ada dan nyata terima kasih untuk semua</t>
+          <t xml:space="preserve">semalam sy ditelpon kawan sy staf kedutaan pea mrk msh membuka lowongan ini yg memenuhi kualifikasi silakan dm </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['rt', 'ditusuk', 'tubuhnya', 'dipeluk', 'pelakunya', 'siapa', 'sangka', 'manusia', 'seperti', 'itu', 'benarbenar', 'ada', 'dan', 'nyata', 'terima', 'kasih', 'untuk', 'semua']</t>
+          <t>['semalam', 'sy', 'ditelpon', 'kawan', 'sy', 'staf', 'kedutaan', 'pea', 'mrk', 'msh', 'membuka', 'lowongan', 'ini', 'yg', 'memenuhi', 'kualifikasi', 'silakan', 'dm']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['semalam', 'saya', 'ditelepon', 'kawan', 'saya', 'staf', 'kedutaan', 'peang', 'mereka', 'masih', 'membuka', 'lowongan', 'ini', 'yang', 'memenuhi', 'kualifikasi', 'silakan', 'direct, message']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['ditusuk', 'tubuhnya', 'dipeluk', 'pelakunya', 'sangka', 'manusia', 'benarbenar', 'nyata', 'terima', 'kasih']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['tusuk', 'tubuh', 'peluk', 'laku', 'sangka', 'manusia', 'benarbenar', 'nyata', 'terima', 'kasih']</t>
+          <t>['semalam', 'ditelepon', 'kawan', 'staf', 'kedutaan', 'peang', 'membuka', 'lowongan', 'memenuhi', 'kualifikasi', 'silakan', 'direct, message']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['malam', 'telepon', 'kawan', 'staf', 'duta', 'peang', 'buka', 'lowong', 'penuh', 'kualifikasi', 'sila', 'direct message']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2653,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>17697</v>
+        <v>28465</v>
       </c>
       <c r="C55" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>kamu gimana</t>
+          <t>kemarin lusa sy sempat mau ngajak istri ke resto ikan bakar tp batal eh tadi siang kok ada yg kirim ikan bakar vi</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['kamu', 'gimana']</t>
+          <t>['kemarin', 'lusa', 'sy', 'sempat', 'mau', 'ngajak', 'istri', 'ke', 'resto', 'ikan', 'bakar', 'tp', 'batal', 'eh', 'tadi', 'siang', 'kok', 'ada', 'yg', 'kirim', 'ikan', 'bakar', 'vi']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kemarin', 'lusa', 'saya', 'sempat', 'mau', 'mengajak', 'istri', 'ke', 'resto', 'ikan', 'bakar', 'tetapi', 'batal', 'eh', 'tadi', 'siang', 'kok', 'ada', 'yang', 'kirim', 'ikan', 'bakar', 'vi']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['gimana']</t>
+          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['gimana']</t>
+          <t>['kemarin', 'lusa', 'mengajak', 'istri', 'resto', 'ikan', 'bakar', 'batal', 'eh', 'siang', 'kirim', 'ikan', 'bakar', 'vi']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['kemarin', 'lusa', 'ajak', 'istri', 'resto', 'ikan', 'bakar', 'batal', 'eh', 'siang', 'kirim', 'ikan', 'bakar', 'vi']</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2694,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>17698</v>
+        <v>28466</v>
       </c>
       <c r="C56" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ampun ngoten yik usul digantos istimta terus kapan dukhulnya</t>
+          <t>rt af ulama ada dua tipe yg rendah hati dan yg pede banget di antara yg pede banget adlh assuyuthi  menulis autobiograf</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['ampun', 'ngoten', 'yik', 'usul', 'digantos', 'istimta', 'terus', 'kapan', 'dukhulnya']</t>
+          <t>['rt', 'af', 'ulama', 'ada', 'dua', 'tipe', 'yg', 'rendah', 'hati', 'dan', 'yg', 'pede', 'banget', 'di', 'antara', 'yg', 'pede', 'banget', 'adlh', 'assuyuthi', 'menulis', 'autobiograf']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['rt', 'af', 'ulama', 'ada', 'dua', 'tipe', 'yang', 'rendah', 'hati', 'dan', 'yang', 'percaya, diri', 'banget', 'di', 'antara', 'yang', 'percaya, diri', 'banget', 'adalah', 'assuyuthi', 'menulis', 'autobiograf']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['ampun', 'ngoten', 'yik', 'usul', 'digantos', 'istimta', 'dukhulnya']</t>
+          <t>&lt;FreqDist with 18 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['ampun', 'ngoten', 'yik', 'usul', 'digantos', 'istimta', 'dukhulnya']</t>
+          <t>['af', 'ulama', 'tipe', 'rendah', 'hati', 'percaya, diri', 'banget', 'percaya, diri', 'banget', 'assuyuthi', 'menulis', 'autobiograf']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['af', 'ulama', 'tipe', 'rendah', 'hati', 'percaya diri', 'banget', 'percaya diri', 'banget', 'assuyuthi', 'tulis', 'autobiograf']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2735,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>17699</v>
+        <v>28467</v>
       </c>
       <c r="C57" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>ga ada</t>
+          <t xml:space="preserve">kalo ada yg nulis semoga ada yg bisa menggantikan tugas fp di seluruh lokasi bencana krn mrk sdh dilarang dan </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['ga', 'ada']</t>
+          <t>['kalo', 'ada', 'yg', 'nulis', 'semoga', 'ada', 'yg', 'bisa', 'menggantikan', 'tugas', 'fp', 'di', 'seluruh', 'lokasi', 'bencana', 'krn', 'mrk', 'sdh', 'dilarang', 'dan']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kalau', 'ada', 'yang', 'menulis', 'semoga', 'ada', 'yang', 'bisa', 'menggantikan', 'tugas', 'fan, page', 'di', 'seluruh', 'lokasi', 'bencana', 'karena', 'mereka', 'sudah', 'dilarang', 'dan']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['menulis', 'semoga', 'menggantikan', 'tugas', 'fan, page', 'lokasi', 'bencana', 'dilarang']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['tulis', 'moga', 'ganti', 'tugas', 'fan page', 'lokasi', 'bencana', 'larang']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2776,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>17700</v>
+        <v>28468</v>
       </c>
       <c r="C58" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">kalo seorang profesor saja masih gemetaran ketika menyuntik presiden maka wajar kalo kelak ada kiai yg gemetaran </t>
+          <t>ternyata lagi ada yg merasa sbg jubir tuhan beberapa musibah yg terjadi akhir ini menurutnya akibat dari fp yg dibubarkan</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['kalo', 'seorang', 'profesor', 'saja', 'masih', 'gemetaran', 'ketika', 'menyuntik', 'presiden', 'maka', 'wajar', 'kalo', 'kelak', 'ada', 'kiai', 'yg', 'gemetaran']</t>
+          <t>['ternyata', 'lagi', 'ada', 'yg', 'merasa', 'sbg', 'jubir', 'tuhan', 'beberapa', 'musibah', 'yg', 'terjadi', 'akhir', 'ini', 'menurutnya', 'akibat', 'dari', 'fp', 'yg', 'dibubarkan']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['ternyata', 'lagi', 'ada', 'yang', 'merasa', 'sebagai', 'juru, bicara', 'tuhan', 'beberapa', 'musibah', 'yang', 'terjadi', 'akhir', 'ini', 'menurutnya', 'akibat', 'dari', 'fan, page', 'yang', 'dibubarkan']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['profesor', 'gemetaran', 'menyuntik', 'presiden', 'wajar', 'kelak', 'kiai', 'gemetaran']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['profesor', 'gemetar', 'suntik', 'presiden', 'wajar', 'kelak', 'kiai', 'gemetar']</t>
+          <t>['juru, bicara', 'tuhan', 'musibah', 'menurutnya', 'akibat', 'fan, page', 'dibubarkan']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['juru bicara', 'tuhan', 'musibah', 'turut', 'akibat', 'fan page', 'bubar']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2817,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>17701</v>
+        <v>28469</v>
       </c>
       <c r="C59" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>thn awal sy kuliah di yaman sy tahu ttg harun yahya dari kader pks</t>
+          <t>rt banser kalimantan selatan ini ngapain assessment kebencanaan dan evakuasi sambil bagi sembako bukannya sibuk jaga gereja da</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['thn', 'awal', 'sy', 'kuliah', 'di', 'yaman', 'sy', 'tahu', 'ttg', 'harun', 'yahya', 'dari', 'kader', 'pks']</t>
+          <t>['rt', 'banser', 'kalimantan', 'selatan', 'ini', 'ngapain', 'assessment', 'kebencanaan', 'dan', 'evakuasi', 'sambil', 'bagi', 'sembako', 'bukannya', 'sibuk', 'jaga', 'gereja', 'da']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['rt', 'barisan, serba, guna', 'kalimantan', 'selatan', 'ini', 'apa', 'assessment', 'kebencanaan', 'dan', 'evakuasi', 'sambil', 'bagi', 'sembako', 'bukannya', 'sibuk', 'jaga', 'gereja', 'dan']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['thn', 'sy', 'kuliah', 'yaman', 'sy', 'ttg', 'harun', 'yahya', 'kader', 'pks']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['thn', 'sy', 'kuliah', 'yaman', 'sy', 'ttg', 'harun', 'yahya', 'kader', 'pks']</t>
+          <t>['barisan, serba, guna', 'kalimantan', 'selatan', 'assessment', 'kebencanaan', 'evakuasi', 'sembako', 'sibuk', 'jaga', 'gereja']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['baris serba guna', 'kalimantan', 'selatan', 'assessment', 'bencana', 'evakuasi', 'sembako', 'sibuk', 'jaga', 'gereja']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2858,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>17702</v>
+        <v>28470</v>
       </c>
       <c r="C60" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>rt menyendiri untuk melarikan diri dari medan ujian bukanlah kesempurnaan melainkan kelemahan adapun hal yang dilakukan oleh</t>
+          <t xml:space="preserve">disadari atau tdk di awal tahun kita diberi musibah di berbagai lini al dakwah hafidzul quran mbah </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['rt', 'menyendiri', 'untuk', 'melarikan', 'diri', 'dari', 'medan', 'ujian', 'bukanlah', 'kesempurnaan', 'melainkan', 'kelemahan', 'adapun', 'hal', 'yang', 'dilakukan', 'oleh']</t>
+          <t>['disadari', 'atau', 'tdk', 'di', 'awal', 'tahun', 'kita', 'diberi', 'musibah', 'di', 'berbagai', 'lini', 'al', 'dakwah', 'hafidzul', 'quran', 'mbah']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['disadari', 'atau', 'tidak', 'di', 'awal', 'tahun', 'kita', 'diberi', 'musibah', 'di', 'berbagai', 'lini', 'al', 'dakwah', 'hafidzul', 'alquran', 'mbah']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['menyendiri', 'melarikan', 'medan', 'ujian', 'kesempurnaan', 'kelemahan']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['sendiri', 'lari', 'medan', 'uji', 'sempurna', 'lemah']</t>
+          <t>['disadari', 'musibah', 'lini', 'al', 'dakwah', 'hafidzul', 'alquran', 'mbah']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['sadar', 'musibah', 'lini', 'al', 'dakwah', 'hafidzul', 'alquran', 'mbah']</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2899,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>17703</v>
+        <v>28471</v>
       </c>
       <c r="C61" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>kali pertamanya ngerasain bakso cak man rasanya bisa diterima lidah harganya cukup murah tapi nasinya akas</t>
+          <t>rt elqattamy evakuasi tuan guru bakhiet ulama besar barabai kalsel semoga beliau sehat dan selalu dalam lindungan allah</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['kali', 'pertamanya', 'ngerasain', 'bakso', 'cak', 'man', 'rasanya', 'bisa', 'diterima', 'lidah', 'harganya', 'cukup', 'murah', 'tapi', 'nasinya', 'akas']</t>
+          <t>['rt', 'elqattamy', 'evakuasi', 'tuan', 'guru', 'bakhiet', 'ulama', 'besar', 'barabai', 'kalsel', 'semoga', 'beliau', 'sehat', 'dan', 'selalu', 'dalam', 'lindungan', 'allah']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['rt', 'elqattamy', 'evakuasi', 'tuan', 'guru', 'bakhiet', 'ulama', 'besar', 'barabai', 'kalsel', 'semoga', 'beliau', 'sehat', 'dan', 'selalu', 'dalam', 'lindungan', 'allah']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['kali', 'pertamanya', 'ngerasain', 'bakso', 'cak', 'man', 'diterima', 'lidah', 'harganya', 'murah', 'nasinya', 'akas']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['kali', 'pertama', 'ngerasain', 'bakso', 'cak', 'man', 'terima', 'lidah', 'harga', 'murah', 'nasi', 'akas']</t>
+          <t>['elqattamy', 'evakuasi', 'tuan', 'guru', 'bakhiet', 'ulama', 'barabai', 'kalsel', 'semoga', 'beliau', 'sehat', 'lindungan', 'allah']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['elqattamy', 'evakuasi', 'tuan', 'guru', 'bakhiet', 'ulama', 'barabai', 'kalsel', 'moga', 'beliau', 'sehat', 'lindung', 'allah']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2940,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>17704</v>
+        <v>28472</v>
       </c>
       <c r="C62" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>now gus baha sedang ngaji</t>
+          <t>khususon ila hadlroti syaikh ali jaber alfatihaah</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['now', 'gus', 'baha', 'sedang', 'ngaji']</t>
+          <t>['khususon', 'ila', 'hadlroti', 'syaikh', 'ali', 'jaber', 'alfatihaah']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['khususon', 'ila', 'hadlroti', 'syaikh', 'ali', 'jaber', 'alfatihaah']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['now', 'gus', 'baha', 'ngaji']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['now', 'gus', 'baha', 'ngaji']</t>
+          <t>['khususon', 'ila', 'hadlroti', 'syaikh', 'ali', 'jaber', 'alfatihaah']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['khususon', 'ila', 'hadlroti', 'syaikh', 'ali', 'jaber', 'alfatihaah']</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2981,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>17705</v>
+        <v>28473</v>
       </c>
       <c r="C63" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>sedang di majelis ini monggo tabarukan</t>
+          <t>rt jafar jangan lupa salat ghaib utk syekh ali jaber juga baca salawat diniatkan hadiah utk beliau krn besarnya cinta beliau pd na</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['sedang', 'di', 'majelis', 'ini', 'monggo', 'tabarukan']</t>
+          <t>['rt', 'jafar', 'jangan', 'lupa', 'salat', 'ghaib', 'utk', 'syekh', 'ali', 'jaber', 'juga', 'baca', 'salawat', 'diniatkan', 'hadiah', 'utk', 'beliau', 'krn', 'besarnya', 'cinta', 'beliau', 'pd', 'na']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'jafar', 'jangan', 'lupa', 'salat', 'ghaib', 'untuk', 'syekh', 'ali', 'jaber', 'juga', 'baca', 'salawat', 'diniatkan', 'hadiah', 'untuk', 'beliau', 'karena', 'besarnya', 'cinta', 'beliau', 'pada', 'na']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['majelis', 'monggo', 'tabarukan']</t>
+          <t>&lt;FreqDist with 21 samples and 23 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['majelis', 'monggo', 'tabaruk']</t>
+          <t>['jafar', 'lupa', 'salat', 'ghaib', 'syekh', 'ali', 'jaber', 'baca', 'salawat', 'diniatkan', 'hadiah', 'beliau', 'besarnya', 'cinta', 'beliau', 'na']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['jafar', 'lupa', 'salat', 'ghaib', 'syekh', 'ali', 'jaber', 'baca', 'salawat', 'niat', 'hadiah', 'beliau', 'besar', 'cinta', 'beliau', 'na']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +3022,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>17706</v>
+        <v>28474</v>
       </c>
       <c r="C64" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>monggo disebarkan</t>
+          <t>hari ini semua status wa isinya sama itu bukti bahwa kebaikan sang penjaga quran dari madinah tsb disaksikan oleh jutaan orang</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['monggo', 'disebarkan']</t>
+          <t>['hari', 'ini', 'semua', 'status', 'wa', 'isinya', 'sama', 'itu', 'bukti', 'bahwa', 'kebaikan', 'sang', 'penjaga', 'quran', 'dari', 'madinah', 'tsb', 'disaksikan', 'oleh', 'jutaan', 'orang']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['hari', 'ini', 'semua', 'status', 'wa', 'isinya', 'sama', 'itu', 'bukti', 'bahwa', 'kebaikan', 'sang', 'penjaga', 'alquran', 'dari', 'madinah', 'tersebut', 'disaksikan', 'oleh', 'jutaan', 'orang']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['monggo', 'disebarkan']</t>
+          <t>&lt;FreqDist with 21 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['monggo', 'sebar']</t>
+          <t>['status', 'wa', 'isinya', 'bukti', 'kebaikan', 'sang', 'penjaga', 'alquran', 'madinah', 'disaksikan', 'jutaan', 'orang']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['status', 'wa', 'isi', 'bukti', 'baik', 'sang', 'jaga', 'alquran', 'madinah', 'saksi', 'juta', 'orang']</t>
         </is>
       </c>
     </row>
@@ -2743,34 +3063,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>17707</v>
+        <v>28475</v>
       </c>
       <c r="C65" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>rt andyong</t>
+          <t>rt terbatabata aa meminta maaf krn menusuk syekh ali jaber tersenyum dgn air muka yg teduh syekh ali jaber menjawab di</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['rt', 'andyong']</t>
+          <t>['rt', 'terbatabata', 'aa', 'meminta', 'maaf', 'krn', 'menusuk', 'syekh', 'ali', 'jaber', 'tersenyum', 'dgn', 'air', 'muka', 'yg', 'teduh', 'syekh', 'ali', 'jaber', 'menjawab', 'di']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['rt', 'terbatabata', 'kakak', 'meminta', 'maaf', 'karena', 'menusuk', 'syekh', 'ali', 'jaber', 'tersenyum', 'dengan', 'air', 'muka', 'yang', 'teduh', 'syekh', 'ali', 'jaber', 'menjawab', 'di']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['andyong']</t>
+          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['andyong']</t>
+          <t>['terbatabata', 'kakak', 'maaf', 'menusuk', 'syekh', 'ali', 'jaber', 'tersenyum', 'air', 'muka', 'teduh', 'syekh', 'ali', 'jaber']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['terbatabata', 'kakak', 'maaf', 'tusuk', 'syekh', 'ali', 'jaber', 'senyum', 'air', 'muka', 'teduh', 'syekh', 'ali', 'jaber']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3104,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>17708</v>
+        <v>28476</v>
       </c>
       <c r="C66" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>apakah info ini benar</t>
+          <t>rt ditusuk tubuhnya dipeluk pelakunya siapa sangka manusia seperti itu benarbenar ada dan nyata terima kasih untuk semua</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['apakah', 'info', 'ini', 'benar']</t>
+          <t>['rt', 'ditusuk', 'tubuhnya', 'dipeluk', 'pelakunya', 'siapa', 'sangka', 'manusia', 'seperti', 'itu', 'benarbenar', 'ada', 'dan', 'nyata', 'terima', 'kasih', 'untuk', 'semua']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'ditusuk', 'tubuhnya', 'dipeluk', 'pelakunya', 'siapa', 'sangka', 'manusia', 'seperti', 'itu', 'benarbenar', 'ada', 'dan', 'nyata', 'terima', 'kasih', 'untuk', 'semua']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['info']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['info']</t>
+          <t>['ditusuk', 'tubuhnya', 'dipeluk', 'pelakunya', 'sangka', 'manusia', 'benarbenar', 'nyata', 'terima', 'kasih']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['tusuk', 'tubuh', 'peluk', 'laku', 'sangka', 'manusia', 'benarbenar', 'nyata', 'terima', 'kasih']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3145,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>17709</v>
+        <v>28477</v>
       </c>
       <c r="C67" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>rt ardi khusus pada itidal subuh dan witir pada rakaat yang akhir disunnatkan membaca doa qoenoet demikian pula ketika ada cobaan</t>
+          <t>kamu gimana</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['rt', 'ardi', 'khusus', 'pada', 'itidal', 'subuh', 'dan', 'witir', 'pada', 'rakaat', 'yang', 'akhir', 'disunnatkan', 'membaca', 'doa', 'qoenoet', 'demikian', 'pula', 'ketika', 'ada', 'cobaan']</t>
+          <t>['kamu', 'gimana']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
+          <t>['kamu', 'bagaimana']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['ardi', 'khusus', 'itidal', 'subuh', 'witir', 'rakaat', 'disunnatkan', 'membaca', 'doa', 'qoenoet', 'cobaan']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['ardi', 'khusus', 'itidal', 'subuh', 'witir', 'rakaat', 'disunnatkan', 'baca', 'doa', 'qoenoet', 'coba']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3186,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>17710</v>
+        <v>28478</v>
       </c>
       <c r="C68" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>pecus buku rb</t>
+          <t>ampun ngoten yik usul digantos istimta terus kapan dukhulnya</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['pecus', 'buku', 'rb']</t>
+          <t>['ampun', 'ngoten', 'yik', 'usul', 'digantos', 'istimta', 'terus', 'kapan', 'dukhulnya']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['ampun', 'ngoten', 'yik', 'usul', 'digantos', 'istimta', 'terus', 'kapan', 'dukhulnya']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['pecus', 'buku', 'rb']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['cus', 'buku', 'rb']</t>
+          <t>['ampun', 'ngoten', 'yik', 'usul', 'digantos', 'istimta', 'dukhulnya']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['ampun', 'ngoten', 'yik', 'usul', 'digantos', 'istimta', 'dukhulnya']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3227,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>17711</v>
+        <v>28479</v>
       </c>
       <c r="C69" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>semua kitab dalam kolase di bawah ini judulnya hanya rb free ongkir  jawa</t>
+          <t>ga ada</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['semua', 'kitab', 'dalam', 'kolase', 'di', 'bawah', 'ini', 'judulnya', 'hanya', 'rb', 'free', 'ongkir', 'jawa']</t>
+          <t>['ga', 'ada']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['tidak', 'ada']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['kitab', 'kolase', 'judulnya', 'rb', 'free', 'ongkir', 'jawa']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['kitab', 'kolase', 'judul', 'rb', 'free', 'ongkir', 'jawa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3268,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>17712</v>
+        <v>28480</v>
       </c>
       <c r="C70" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>ujian santri cara yang benar memakai sarung</t>
+          <t xml:space="preserve">kalo seorang profesor saja masih gemetaran ketika menyuntik presiden maka wajar kalo kelak ada kiai yg gemetaran </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['ujian', 'santri', 'cara', 'yang', 'benar', 'memakai', 'sarung']</t>
+          <t>['kalo', 'seorang', 'profesor', 'saja', 'masih', 'gemetaran', 'ketika', 'menyuntik', 'presiden', 'maka', 'wajar', 'kalo', 'kelak', 'ada', 'kiai', 'yg', 'gemetaran']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['kalau', 'seorang', 'profesor', 'saja', 'masih', 'gemetaran', 'ketika', 'menyuntik', 'presiden', 'maka', 'wajar', 'kalau', 'kelak', 'ada', 'kiai', 'yang', 'gemetaran']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['ujian', 'santri', 'memakai', 'sarung']</t>
+          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['uji', 'santri', 'pakai', 'sarung']</t>
+          <t>['profesor', 'gemetaran', 'menyuntik', 'presiden', 'wajar', 'kelak', 'kiai', 'gemetaran']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['profesor', 'gemetar', 'suntik', 'presiden', 'wajar', 'kelak', 'kiai', 'gemetar']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3309,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>17713</v>
+        <v>28481</v>
       </c>
       <c r="C71" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>rt lahulfatihah</t>
+          <t>thn awal sy kuliah di yaman sy tahu ttg harun yahya dari kader pks</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['rt', 'lahulfatihah']</t>
+          <t>['thn', 'awal', 'sy', 'kuliah', 'di', 'yaman', 'sy', 'tahu', 'ttg', 'harun', 'yahya', 'dari', 'kader', 'pks']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tahun', 'awal', 'saya', 'kuliah', 'di', 'yaman', 'saya', 'tahu', 'tentang', 'harun', 'yahya', 'dari', 'kader', 'partai, keadilan, sejahtera']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['lahulfatihah']</t>
+          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['lahulfatihah']</t>
+          <t>['kuliah', 'yaman', 'harun', 'yahya', 'kader', 'partai, keadilan, sejahtera']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['kuliah', 'yaman', 'harun', 'yahya', 'kader', 'partai adil sejahtera']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3350,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>17714</v>
+        <v>28482</v>
       </c>
       <c r="C72" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>suasana upacara pelepasan jenazah mbahyai najib</t>
+          <t>rt menyendiri untuk melarikan diri dari medan ujian bukanlah kesempurnaan melainkan kelemahan adapun hal yang dilakukan oleh</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['suasana', 'upacara', 'pelepasan', 'jenazah', 'mbahyai', 'najib']</t>
+          <t>['rt', 'menyendiri', 'untuk', 'melarikan', 'diri', 'dari', 'medan', 'ujian', 'bukanlah', 'kesempurnaan', 'melainkan', 'kelemahan', 'adapun', 'hal', 'yang', 'dilakukan', 'oleh']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['rt', 'menyendiri', 'untuk', 'melarikan', 'diri', 'dari', 'medan', 'ujian', 'bukanlah', 'kesempurnaan', 'melainkan', 'kelemahan', 'adapun', 'hal', 'yang', 'dilakukan', 'oleh']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['suasana', 'upacara', 'pelepasan', 'jenazah', 'mbahyai', 'najib']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['suasana', 'upacara', 'lepas', 'jenazah', 'mbahyai', 'najib']</t>
+          <t>['menyendiri', 'melarikan', 'medan', 'ujian', 'kesempurnaan', 'kelemahan']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['sendiri', 'lari', 'medan', 'uji', 'sempurna', 'lemah']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3391,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>17715</v>
+        <v>28483</v>
       </c>
       <c r="C73" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>lahul fatihah</t>
+          <t>kali pertamanya ngerasain bakso cak man rasanya bisa diterima lidah harganya cukup murah tapi nasinya akas</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['lahul', 'fatihah']</t>
+          <t>['kali', 'pertamanya', 'ngerasain', 'bakso', 'cak', 'man', 'rasanya', 'bisa', 'diterima', 'lidah', 'harganya', 'cukup', 'murah', 'tapi', 'nasinya', 'akas']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['kali', 'pertamanya', 'merasakan', 'bakso', 'cak', 'man', 'rasanya', 'bisa', 'diterima', 'lidah', 'harganya', 'cukup', 'murah', 'tapi', 'nasinya', 'akas']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['lahul', 'fatihah']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['lahul', 'fatihah']</t>
+          <t>['kali', 'pertamanya', 'merasakan', 'bakso', 'cak', 'man', 'diterima', 'lidah', 'harganya', 'murah', 'nasinya', 'akas']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['kali', 'pertama', 'rasa', 'bakso', 'cak', 'man', 'terima', 'lidah', 'harga', 'murah', 'nasi', 'akas']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3432,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>17716</v>
+        <v>28484</v>
       </c>
       <c r="C74" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>beda yayasan al munawwir lebih tua</t>
+          <t>now gus baha sedang ngaji</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['beda', 'yayasan', 'al', 'munawwir', 'lebih', 'tua']</t>
+          <t>['now', 'gus', 'baha', 'sedang', 'ngaji']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['now', 'gus', 'baha', 'sedang', 'mengaji']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['beda', 'yayasan', 'al', 'munawwir', 'tua']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['beda', 'yayasan', 'al', 'munawwir', 'tua']</t>
+          <t>['now', 'gus', 'baha', 'mengaji']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['now', 'gus', 'baha', 'aji']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3473,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>17717</v>
+        <v>28485</v>
       </c>
       <c r="C75" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ya allah mbahyai najib</t>
+          <t>sedang di majelis ini monggo tabarukan</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['ya', 'allah', 'mbahyai', 'najib']</t>
+          <t>['sedang', 'di', 'majelis', 'ini', 'monggo', 'tabarukan']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['sedang', 'di', 'majelis', 'ini', 'monggo', 'tabarukan']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['allah', 'mbahyai', 'najib']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['allah', 'mbahyai', 'najib']</t>
+          <t>['majelis', 'monggo', 'tabarukan']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['majelis', 'monggo', 'tabaruk']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3514,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>17718</v>
+        <v>28486</v>
       </c>
       <c r="C76" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>ngopi sambil menikmati artikel gus gus as sbg alumni mranggen sudah baca buku ini blm</t>
+          <t>monggo disebarkan</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['ngopi', 'sambil', 'menikmati', 'artikel', 'gus', 'gus', 'as', 'sbg', 'alumni', 'mranggen', 'sudah', 'baca', 'buku', 'ini', 'blm']</t>
+          <t>['monggo', 'disebarkan']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
+          <t>['monggo', 'disebarkan']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['ngopi', 'menikmati', 'artikel', 'gus', 'gus', 'as', 'sbg', 'alumni', 'mranggen', 'baca', 'buku', 'blm']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['ngopi', 'nikmat', 'artikel', 'gus', 'gus', 'as', 'sbg', 'alumni', 'mranggen', 'baca', 'buku', 'blm']</t>
+          <t>['monggo', 'disebarkan']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['monggo', 'sebar']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>17719</v>
+        <v>28487</v>
       </c>
       <c r="C77" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>sholawat pagi bang jago</t>
+          <t>rt andyong</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['sholawat', 'pagi', 'bang', 'jago']</t>
+          <t>['rt', 'andyong']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'andyong']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['sholawat', 'pagi', 'bang', 'jago']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['sholawat', 'pagi', 'bang', 'jago']</t>
+          <t>['andyong']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['andyong']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>17720</v>
+        <v>28488</v>
       </c>
       <c r="C78" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>menolak lupa tapi lupa membaca sejarah</t>
+          <t>apakah info ini benar</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['menolak', 'lupa', 'tapi', 'lupa', 'membaca', 'sejarah']</t>
+          <t>['apakah', 'info', 'ini', 'benar']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
+          <t>['apakah', 'info', 'ini', 'benar']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['menolak', 'lupa', 'lupa', 'membaca', 'sejarah']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['tolak', 'lupa', 'lupa', 'baca', 'sejarah']</t>
+          <t>['info']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['info']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>17721</v>
+        <v>28489</v>
       </c>
       <c r="C79" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>monggo khususon warga nu sleman</t>
+          <t>rt ardi khusus pada itidal subuh dan witir pada rakaat yang akhir disunnatkan membaca doa qoenoet demikian pula ketika ada cobaan</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['monggo', 'khususon', 'warga', 'nu', 'sleman']</t>
+          <t>['rt', 'ardi', 'khusus', 'pada', 'itidal', 'subuh', 'dan', 'witir', 'pada', 'rakaat', 'yang', 'akhir', 'disunnatkan', 'membaca', 'doa', 'qoenoet', 'demikian', 'pula', 'ketika', 'ada', 'cobaan']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'ardi', 'khusus', 'pada', 'itidal', 'subuh', 'dan', 'witir', 'pada', 'rakaat', 'yang', 'akhir', 'disunnatkan', 'membaca', 'doa', 'qoenoet', 'demikian', 'pula', 'ketika', 'ada', 'cobaan']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['monggo', 'khususon', 'warga', 'nu', 'sleman']</t>
+          <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['monggo', 'khususon', 'warga', 'nu', 'sleman']</t>
+          <t>['ardi', 'khusus', 'itidal', 'subuh', 'witir', 'rakaat', 'disunnatkan', 'membaca', 'doa', 'qoenoet', 'cobaan']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['ardi', 'khusus', 'itidal', 'subuh', 'witir', 'rakaat', 'disunnatkan', 'baca', 'doa', 'qoenoet', 'coba']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>17722</v>
+        <v>28490</v>
       </c>
       <c r="C80" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>takziah ke mranggen diberi hadiah buku oleh cucu mbah muslih</t>
+          <t>pecus buku rb</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['takziah', 'ke', 'mranggen', 'diberi', 'hadiah', 'buku', 'oleh', 'cucu', 'mbah', 'muslih']</t>
+          <t>['pecus', 'buku', 'rb']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
+          <t>['becus', 'buku', 'ribu']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['takziah', 'mranggen', 'hadiah', 'buku', 'cucu', 'mbah', 'muslih']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['takziah', 'mranggen', 'hadiah', 'buku', 'cucu', 'mbah', 'muslih']</t>
+          <t>['becus', 'buku', 'ribu']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['becus', 'buku', 'ribu']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>17723</v>
+        <v>28491</v>
       </c>
       <c r="C81" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>kenapa namaku jadi nusron</t>
+          <t>semua kitab dalam kolase di bawah ini judulnya hanya rb free ongkir  jawa</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['kenapa', 'namaku', 'jadi', 'nusron']</t>
+          <t>['semua', 'kitab', 'dalam', 'kolase', 'di', 'bawah', 'ini', 'judulnya', 'hanya', 'rb', 'free', 'ongkir', 'jawa']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['semua', 'kitab', 'dalam', 'kolase', 'di', 'bawah', 'ini', 'judulnya', 'hanya', 'ribu', 'free', 'ongkos, kirim', 'jawa']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['namaku', 'nusron']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['nama', 'nusron']</t>
+          <t>['kitab', 'kolase', 'judulnya', 'ribu', 'free', 'ongkos, kirim', 'jawa']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['kitab', 'kolase', 'judul', 'ribu', 'free', 'ongkos kirim', 'jawa']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3760,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>17724</v>
+        <v>28492</v>
       </c>
       <c r="C82" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>rt ch untuk sedulur kristiani selamat merayakan natal amp tahun baru damai bahagia dan sehat bersama keluarga tercinta</t>
+          <t>ujian santri cara yang benar memakai sarung</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['rt', 'ch', 'untuk', 'sedulur', 'kristiani', 'selamat', 'merayakan', 'natal', 'amp', 'tahun', 'baru', 'damai', 'bahagia', 'dan', 'sehat', 'bersama', 'keluarga', 'tercinta']</t>
+          <t>['ujian', 'santri', 'cara', 'yang', 'benar', 'memakai', 'sarung']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['ujian', 'santri', 'cara', 'yang', 'benar', 'memakai', 'sarung']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['ch', 'sedulur', 'kristiani', 'selamat', 'merayakan', 'natal', 'damai', 'bahagia', 'sehat', 'keluarga', 'tercinta']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['ch', 'dulur', 'kristiani', 'selamat', 'raya', 'natal', 'damai', 'bahagia', 'sehat', 'keluarga', 'cinta']</t>
+          <t>['ujian', 'santri', 'memakai', 'sarung']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['uji', 'santri', 'pakai', 'sarung']</t>
         </is>
       </c>
     </row>
@@ -3391,30 +3801,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>17725</v>
+        <v>28493</v>
       </c>
       <c r="C83" t="n">
-        <v>218</v>
-      </c>
-      <c r="D83" t="inlineStr"/>
+        <v>334</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>rt lahulfatihah</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rt', 'lahulfatihah']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rt', 'lahulfatihah']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['lahulfatihah']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['lahulfatihah']</t>
         </is>
       </c>
     </row>
@@ -3423,34 +3842,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>17726</v>
+        <v>28494</v>
       </c>
       <c r="C84" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ternyata sudah ada isyarat</t>
+          <t>suasana upacara pelepasan jenazah mbahyai najib</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['ternyata', 'sudah', 'ada', 'isyarat']</t>
+          <t>['suasana', 'upacara', 'pelepasan', 'jenazah', 'mbahyai', 'najib']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['suasana', 'upacara', 'pelepasan', 'jenazah', 'mbahyai', 'najib']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['isyarat']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['isyarat']</t>
+          <t>['suasana', 'upacara', 'pelepasan', 'jenazah', 'mbahyai', 'najib']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['suasana', 'upacara', 'lepas', 'jenazah', 'mbahyai', 'najib']</t>
         </is>
       </c>
     </row>
@@ -3459,34 +3883,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>17727</v>
+        <v>28495</v>
       </c>
       <c r="C85" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>monggo masih ada kesempatan hari ini terakhir</t>
+          <t>lahul fatihah</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['monggo', 'masih', 'ada', 'kesempatan', 'hari', 'ini', 'terakhir']</t>
+          <t>['lahul', 'fatihah']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['lahul', 'fatihah']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['monggo', 'kesempatan']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['monggo', 'sempat']</t>
+          <t>['lahul', 'fatihah']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['lahul', 'fatihah']</t>
         </is>
       </c>
     </row>
@@ -3495,34 +3924,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>17728</v>
+        <v>28496</v>
       </c>
       <c r="C86" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ke jogja aja yik</t>
+          <t>beda yayasan al munawwir lebih tua</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['ke', 'jogja', 'aja', 'yik']</t>
+          <t>['beda', 'yayasan', 'al', 'munawwir', 'lebih', 'tua']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['beda', 'yayasan', 'al', 'munawwir', 'lebih', 'tua']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['jogja', 'yik']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['jogja', 'yik']</t>
+          <t>['beda', 'yayasan', 'al', 'munawwir', 'tua']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['beda', 'yayasan', 'al', 'munawwir', 'tua']</t>
         </is>
       </c>
     </row>
@@ -3531,34 +3965,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>17729</v>
+        <v>28497</v>
       </c>
       <c r="C87" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>btw iphone  gb kondisi masih bagus lengkap minus kapasitas baterai pasarannya berapa ya nuwun</t>
+          <t>ya allah mbahyai najib</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['btw', 'iphone', 'gb', 'kondisi', 'masih', 'bagus', 'lengkap', 'minus', 'kapasitas', 'baterai', 'pasarannya', 'berapa', 'ya', 'nuwun']</t>
+          <t>['ya', 'allah', 'mbahyai', 'najib']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['ya', 'allah', 'mbahyai', 'najib']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['btw', 'iphone', 'gb', 'kondisi', 'bagus', 'lengkap', 'minus', 'kapasitas', 'baterai', 'pasarannya', 'nuwun']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['btw', 'iphone', 'gb', 'kondisi', 'bagus', 'lengkap', 'minus', 'kapasitas', 'baterai', 'pasar', 'nuwun']</t>
+          <t>['allah', 'mbahyai', 'najib']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['allah', 'mbahyai', 'najib']</t>
         </is>
       </c>
     </row>
@@ -3567,34 +4006,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>17730</v>
+        <v>28498</v>
       </c>
       <c r="C88" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>teman pemprov diy sedang mengadakan seleksi tenaga bantu ada formasi info detailnya silakan buka</t>
+          <t>ngopi sambil menikmati artikel gus gus as sbg alumni mranggen sudah baca buku ini blm</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['teman', 'pemprov', 'diy', 'sedang', 'mengadakan', 'seleksi', 'tenaga', 'bantu', 'ada', 'formasi', 'info', 'detailnya', 'silakan', 'buka']</t>
+          <t>['ngopi', 'sambil', 'menikmati', 'artikel', 'gus', 'gus', 'as', 'sbg', 'alumni', 'mranggen', 'sudah', 'baca', 'buku', 'ini', 'blm']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['minum, kopi', 'sambil', 'menikmati', 'artikel', 'gus', 'gus', 'as', 'sebagai', 'alumni', 'mranggen', 'sudah', 'baca', 'buku', 'ini', 'belum']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['teman', 'pemprov', 'diy', 'mengadakan', 'seleksi', 'tenaga', 'bantu', 'formasi', 'info', 'detailnya', 'silakan', 'buka']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['teman', 'pemprov', 'diy', 'ada', 'seleksi', 'tenaga', 'bantu', 'formasi', 'info', 'detail', 'sila', 'buka']</t>
+          <t>['minum, kopi', 'menikmati', 'artikel', 'gus', 'gus', 'as', 'alumni', 'mranggen', 'baca', 'buku']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['minum kopi', 'nikmat', 'artikel', 'gus', 'gus', 'as', 'alumni', 'mranggen', 'baca', 'buku']</t>
         </is>
       </c>
     </row>
@@ -3603,34 +4047,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>17731</v>
+        <v>28499</v>
       </c>
       <c r="C89" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>mboten wonten monggo via wa</t>
+          <t>sholawat pagi bang jago</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['mboten', 'wonten', 'monggo', 'via', 'wa']</t>
+          <t>['sholawat', 'pagi', 'bang', 'jago']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sholawat', 'pagi', 'bang', 'jago']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>['mboten', 'wonten', 'monggo', 'via', 'wa']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>['mboten', 'wonten', 'monggo', 'via', 'wa']</t>
+          <t>['sholawat', 'pagi', 'bang', 'jago']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['sholawat', 'pagi', 'bang', 'jago']</t>
         </is>
       </c>
     </row>
@@ -3639,34 +4088,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>17732</v>
+        <v>28500</v>
       </c>
       <c r="C90" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>rt bantu istri jualan mukena bordir untuk info lebih detail silakan kontak mohon izin sedekah retui</t>
+          <t>menolak lupa tapi lupa membaca sejarah</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['rt', 'bantu', 'istri', 'jualan', 'mukena', 'bordir', 'untuk', 'info', 'lebih', 'detail', 'silakan', 'kontak', 'mohon', 'izin', 'sedekah', 'retui']</t>
+          <t>['menolak', 'lupa', 'tapi', 'lupa', 'membaca', 'sejarah']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['menolak', 'lupa', 'tapi', 'lupa', 'membaca', 'sejarah']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['bantu', 'istri', 'jualan', 'mukena', 'bordir', 'info', 'detail', 'silakan', 'kontak', 'mohon', 'izin', 'sedekah', 'retui']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['bantu', 'istri', 'jual', 'mukena', 'bordir', 'info', 'detail', 'sila', 'kontak', 'mohon', 'izin', 'sedekah', 'retui']</t>
+          <t>['menolak', 'lupa', 'lupa', 'membaca', 'sejarah']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['tolak', 'lupa', 'lupa', 'baca', 'sejarah']</t>
         </is>
       </c>
     </row>
@@ -3675,34 +4129,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>17733</v>
+        <v>28501</v>
       </c>
       <c r="C91" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>buat pendherek mbah maimoen gus baha aa gym dll jangan lewatkan acara ini</t>
+          <t>monggo khususon warga nu sleman</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['buat', 'pendherek', 'mbah', 'maimoen', 'gus', 'baha', 'aa', 'gym', 'dll', 'jangan', 'lewatkan', 'acara', 'ini']</t>
+          <t>['monggo', 'khususon', 'warga', 'nu', 'sleman']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['monggo', 'khususon', 'warga', 'nu', 'sleman']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['pendherek', 'mbah', 'maimoen', 'gus', 'baha', 'aa', 'gym', 'dll', 'lewatkan', 'acara']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>['pendherek', 'mbah', 'maimoen', 'gus', 'baha', 'aa', 'gym', 'dll', 'lewat', 'acara']</t>
+          <t>['monggo', 'khususon', 'warga', 'nu', 'sleman']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['monggo', 'khususon', 'warga', 'nu', 'sleman']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4170,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>17734</v>
+        <v>28502</v>
       </c>
       <c r="C92" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>rt sayyidina ali zainal abidin bin hussein suatu hari ditanya mengapa ketika engkau pergi tdk memperkenalkan diri pada</t>
+          <t>takziah ke mranggen diberi hadiah buku oleh cucu mbah muslih</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['rt', 'sayyidina', 'ali', 'zainal', 'abidin', 'bin', 'hussein', 'suatu', 'hari', 'ditanya', 'mengapa', 'ketika', 'engkau', 'pergi', 'tdk', 'memperkenalkan', 'diri', 'pada']</t>
+          <t>['takziah', 'ke', 'mranggen', 'diberi', 'hadiah', 'buku', 'oleh', 'cucu', 'mbah', 'muslih']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['takziah', 'ke', 'mranggen', 'diberi', 'hadiah', 'buku', 'oleh', 'cucu', 'mbah', 'muslih']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['sayyidina', 'ali', 'zainal', 'abidin', 'bin', 'hussein', 'engkau', 'pergi', 'memperkenalkan']</t>
+          <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['sayyidina', 'ali', 'zainal', 'abidin', 'bin', 'hussein', 'engkau', 'pergi', 'kenal']</t>
+          <t>['takziah', 'mranggen', 'hadiah', 'buku', 'cucu', 'mbah', 'muslih']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['takziah', 'mranggen', 'hadiah', 'buku', 'cucu', 'mbah', 'muslih']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4211,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>17735</v>
+        <v>28503</v>
       </c>
       <c r="C93" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>meresap keringat tidak panas bahan katun prima primis tidak nerawang ukuran dewasa</t>
+          <t>kenapa namaku jadi nusron</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['meresap', 'keringat', 'tidak', 'panas', 'bahan', 'katun', 'prima', 'primis', 'tidak', 'nerawang', 'ukuran', 'dewasa']</t>
+          <t>['kenapa', 'namaku', 'jadi', 'nusron']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['kenapa', 'namaku', 'jadi', 'nusron']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['meresap', 'keringat', 'panas', 'bahan', 'katun', 'prima', 'primis', 'nerawang', 'ukuran', 'dewasa']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['resap', 'keringat', 'panas', 'bahan', 'katun', 'prima', 'primis', 'nerawang', 'ukur', 'dewasa']</t>
+          <t>['namaku', 'nusron']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['nama', 'nusron']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4252,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>17736</v>
+        <v>28504</v>
       </c>
       <c r="C94" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>kontak wa yg tercantum mawon</t>
+          <t>rt ch untuk sedulur kristiani selamat merayakan natal amp tahun baru damai bahagia dan sehat bersama keluarga tercinta</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['kontak', 'wa', 'yg', 'tercantum', 'mawon']</t>
+          <t>['rt', 'ch', 'untuk', 'sedulur', 'kristiani', 'selamat', 'merayakan', 'natal', 'amp', 'tahun', 'baru', 'damai', 'bahagia', 'dan', 'sehat', 'bersama', 'keluarga', 'tercinta']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'chapter', 'untuk', 'saudara', 'kristiani', 'selamat', 'merayakan', 'natal', 'amp', 'tahun', 'baru', 'damai', 'bahagia', 'dan', 'sehat', 'bersama', 'keluarga', 'tercinta']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['kontak', 'wa', 'tercantum', 'mawon']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['kontak', 'wa', 'cantum', 'mawon']</t>
+          <t>['chapter', 'saudara', 'kristiani', 'selamat', 'merayakan', 'natal', 'damai', 'bahagia', 'sehat', 'keluarga', 'tercinta']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['chapter', 'saudara', 'kristiani', 'selamat', 'raya', 'natal', 'damai', 'bahagia', 'sehat', 'keluarga', 'cinta']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4293,35 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>17737</v>
+        <v>28505</v>
       </c>
       <c r="C95" t="n">
-        <v>218</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>ternyata harganya murmer loh hanya rb kalo kodi jt</t>
-        </is>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['ternyata', 'harganya', 'murmer', 'loh', 'hanya', 'rb', 'kalo', 'kodi', 'jt']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['harganya', 'murmer', 'rb', 'kodi', 'jt']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['harga', 'murmer', 'rb', 'kodi', 'jt']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4330,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>17738</v>
+        <v>28506</v>
       </c>
       <c r="C96" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>bantu istri jualan mukena bordir untuk info lebih detail silakan kontak mohon izin sedeka</t>
+          <t>ternyata sudah ada isyarat</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['bantu', 'istri', 'jualan', 'mukena', 'bordir', 'untuk', 'info', 'lebih', 'detail', 'silakan', 'kontak', 'mohon', 'izin', 'sedeka']</t>
+          <t>['ternyata', 'sudah', 'ada', 'isyarat']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['ternyata', 'sudah', 'ada', 'isyarat']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>['bantu', 'istri', 'jualan', 'mukena', 'bordir', 'info', 'detail', 'silakan', 'kontak', 'mohon', 'izin', 'sedeka']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['bantu', 'istri', 'jual', 'mukena', 'bordir', 'info', 'detail', 'sila', 'kontak', 'mohon', 'izin', 'sedeka']</t>
+          <t>['isyarat']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['isyarat']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4371,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>17739</v>
+        <v>28507</v>
       </c>
       <c r="C97" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>diskon terjemah kitab hadits sunan terbitan gema insani press ibnu majah jld jt jadi rb attirmidz</t>
+          <t>monggo masih ada kesempatan hari ini terakhir</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['diskon', 'terjemah', 'kitab', 'hadits', 'sunan', 'terbitan', 'gema', 'insani', 'press', 'ibnu', 'majah', 'jld', 'jt', 'jadi', 'rb', 'attirmidz']</t>
+          <t>['monggo', 'masih', 'ada', 'kesempatan', 'hari', 'ini', 'terakhir']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['monggo', 'masih', 'ada', 'kesempatan', 'hari', 'ini', 'terakhir']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['diskon', 'terjemah', 'kitab', 'hadits', 'sunan', 'terbitan', 'gema', 'insani', 'press', 'ibnu', 'majah', 'jld', 'jt', 'rb', 'attirmidz']</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['diskon', 'terjemah', 'kitab', 'hadits', 'sunan', 'terbit', 'gema', 'insani', 'press', 'ibnu', 'majah', 'jld', 'jt', 'rb', 'attirmidz']</t>
+          <t>['monggo', 'kesempatan']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['monggo', 'sempat']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4412,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>17740</v>
+        <v>28508</v>
       </c>
       <c r="C98" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>monggo dm</t>
+          <t>ke jogja aja yik</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['monggo', 'dm']</t>
+          <t>['ke', 'jogja', 'aja', 'yik']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['ke', 'yoyakarta', 'saja', 'yik']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['monggo', 'dm']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['monggo', 'dm']</t>
+          <t>['yoyakarta', 'yik']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['yoyakarta', 'yik']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4453,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>17741</v>
+        <v>28509</v>
       </c>
       <c r="C99" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>sy barusan ngaji faraidul bahiyyah pas di bab sebuah ijtihad tidak bisa dibatalkan dg ijtihad lainnya sy berikan</t>
+          <t>btw iphone  gb kondisi masih bagus lengkap minus kapasitas baterai pasarannya berapa ya nuwun</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['sy', 'barusan', 'ngaji', 'faraidul', 'bahiyyah', 'pas', 'di', 'bab', 'sebuah', 'ijtihad', 'tidak', 'bisa', 'dibatalkan', 'dg', 'ijtihad', 'lainnya', 'sy', 'berikan']</t>
+          <t>['btw', 'iphone', 'gb', 'kondisi', 'masih', 'bagus', 'lengkap', 'minus', 'kapasitas', 'baterai', 'pasarannya', 'berapa', 'ya', 'nuwun']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['by, the, way', 'iphone', 'gb', 'kondisi', 'masih', 'bagus', 'lengkap', 'minus', 'kapasitas', 'baterai', 'pasarannya', 'berapa', 'ya', 'nuwun']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['sy', 'barusan', 'ngaji', 'faraidul', 'bahiyyah', 'pas', 'bab', 'ijtihad', 'dibatalkan', 'ijtihad', 'sy']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['sy', 'barusan', 'ngaji', 'faraidul', 'bahiyyah', 'pas', 'bab', 'ijtihad', 'batal', 'ijtihad', 'sy']</t>
+          <t>['by, the, way', 'iphone', 'gb', 'kondisi', 'bagus', 'lengkap', 'minus', 'kapasitas', 'baterai', 'pasarannya', 'nuwun']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['by the way', 'iphone', 'gb', 'kondisi', 'bagus', 'lengkap', 'minus', 'kapasitas', 'baterai', 'pasar', 'nuwun']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4494,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>17742</v>
+        <v>28510</v>
       </c>
       <c r="C100" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>faizfirdaus bukan kalo yg terjemah beda harga</t>
+          <t>teman pemprov diy sedang mengadakan seleksi tenaga bantu ada formasi info detailnya silakan buka</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['faizfirdaus', 'bukan', 'kalo', 'yg', 'terjemah', 'beda', 'harga']</t>
+          <t>['teman', 'pemprov', 'diy', 'sedang', 'mengadakan', 'seleksi', 'tenaga', 'bantu', 'ada', 'formasi', 'info', 'detailnya', 'silakan', 'buka']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['teman', 'pemerintah, provinsi', 'diy', 'sedang', 'mengadakan', 'seleksi', 'tenaga', 'bantu', 'ada', 'formasi', 'info', 'detailnya', 'silakan', 'buka']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['faizfirdaus', 'terjemah', 'beda', 'harga']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['faizfirdaus', 'terjemah', 'beda', 'harga']</t>
+          <t>['teman', 'pemerintah, provinsi', 'diy', 'mengadakan', 'seleksi', 'tenaga', 'bantu', 'formasi', 'info', 'detailnya', 'silakan', 'buka']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['teman', 'perintah provinsi', 'diy', 'ada', 'seleksi', 'tenaga', 'bantu', 'formasi', 'info', 'detail', 'sila', 'buka']</t>
         </is>
       </c>
     </row>
@@ -4035,34 +4535,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>17743</v>
+        <v>28511</v>
       </c>
       <c r="C101" t="n">
-        <v>218</v>
+        <v>334</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> hehe</t>
+          <t>mboten wonten monggo via wa</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['hehe']</t>
+          <t>['mboten', 'wonten', 'monggo', 'via', 'wa']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['tidak', 'wonten', 'monggo', 'via', 'wa']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['wonten', 'monggo', 'via', 'wa']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['wonten', 'monggo', 'via', 'wa']</t>
         </is>
       </c>
     </row>
